--- a/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.607317068374755</v>
+        <v>2.607317068374812</v>
       </c>
       <c r="C2">
-        <v>0.5055014102231326</v>
+        <v>0.5055014102222515</v>
       </c>
       <c r="D2">
-        <v>0.2129798539121879</v>
+        <v>0.2129798539122021</v>
       </c>
       <c r="E2">
-        <v>0.05999979771246444</v>
+        <v>0.0599997977124751</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.933369603128511</v>
+        <v>8.933369603128483</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01018111490067852</v>
+        <v>0.01018111490073492</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1363225968432964</v>
+        <v>0.1363225968433213</v>
       </c>
       <c r="L2">
-        <v>0.6524556434211846</v>
+        <v>0.6524556434211775</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.225831876872689</v>
+        <v>2.225831876872405</v>
       </c>
       <c r="C3">
-        <v>0.4262804207457123</v>
+        <v>0.4262804207452859</v>
       </c>
       <c r="D3">
-        <v>0.1848134697655581</v>
+        <v>0.1848134697655439</v>
       </c>
       <c r="E3">
-        <v>0.05430514313181689</v>
+        <v>0.05430514313192703</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.813804342788387</v>
+        <v>7.813804342788444</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.00951500680200601</v>
+        <v>0.009515006802053749</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1183947414216959</v>
+        <v>0.1183947414216533</v>
       </c>
       <c r="L3">
         <v>0.5601717224352285</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.000619037679485</v>
+        <v>2.000619037679257</v>
       </c>
       <c r="C4">
-        <v>0.3796902254306644</v>
+        <v>0.3796902254292434</v>
       </c>
       <c r="D4">
-        <v>0.1680722413607896</v>
+        <v>0.1680722413609885</v>
       </c>
       <c r="E4">
-        <v>0.05091878997736998</v>
+        <v>0.05091878997741794</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.146062402901379</v>
+        <v>7.146062402901464</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.009120992732484456</v>
+        <v>0.009120992732495337</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1077772204813741</v>
+        <v>0.1077772204813812</v>
       </c>
       <c r="L4">
         <v>0.5056275365915752</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.910767451807402</v>
+        <v>1.91076745180689</v>
       </c>
       <c r="C5">
-        <v>0.361133485288093</v>
+        <v>0.3611334852881214</v>
       </c>
       <c r="D5">
-        <v>0.1613682483113337</v>
+        <v>0.1613682483111631</v>
       </c>
       <c r="E5">
-        <v>0.04956231701670077</v>
+        <v>0.04956231701661729</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.878069583642684</v>
+        <v>6.878069583642713</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.008963299700479377</v>
+        <v>0.008963299700521343</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1035344541602328</v>
+        <v>0.103534454160215</v>
       </c>
       <c r="L5">
-        <v>0.4838539992470459</v>
+        <v>0.4838539992470601</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.89595472761377</v>
+        <v>1.895954727613656</v>
       </c>
       <c r="C6">
-        <v>0.3580757666161958</v>
+        <v>0.3580757666162526</v>
       </c>
       <c r="D6">
-        <v>0.1602616348215093</v>
+        <v>0.1602616348213104</v>
       </c>
       <c r="E6">
-        <v>0.04933838171818117</v>
+        <v>0.04933838171819183</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.833796034894732</v>
+        <v>6.833796034894704</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.008937264628595898</v>
+        <v>0.008937264628580133</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1028346376606812</v>
+        <v>0.1028346376607168</v>
       </c>
       <c r="L6">
-        <v>0.4802638087347262</v>
+        <v>0.4802638087347546</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.999399896003354</v>
+        <v>1.99939989600324</v>
       </c>
       <c r="C7">
-        <v>0.3794383308994611</v>
+        <v>0.3794383308990632</v>
       </c>
       <c r="D7">
-        <v>0.1679813760196964</v>
+        <v>0.1679813760195259</v>
       </c>
       <c r="E7">
-        <v>0.05090040615798053</v>
+        <v>0.05090040615800362</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.142432505005985</v>
+        <v>7.142432505005957</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.009118855491057953</v>
+        <v>0.009118855491035971</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1077196784809829</v>
+        <v>0.1077196784809011</v>
       </c>
       <c r="L7">
-        <v>0.5053321509536914</v>
+        <v>0.5053321509536985</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.473685994826894</v>
+        <v>2.473685994826781</v>
       </c>
       <c r="C8">
-        <v>0.4777037421774537</v>
+        <v>0.4777037421773969</v>
       </c>
       <c r="D8">
-        <v>0.2031398208352186</v>
+        <v>0.203139820835645</v>
       </c>
       <c r="E8">
-        <v>0.05801069113092083</v>
+        <v>0.05801069113107005</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.542723587901463</v>
+        <v>8.54272358790152</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.009947747345104618</v>
+        <v>0.009947747345110391</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1300509174551081</v>
+        <v>0.1300509174551152</v>
       </c>
       <c r="L8">
-        <v>0.6201452832502952</v>
+        <v>0.6201452832503378</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.493946605104384</v>
+        <v>3.493946605104441</v>
       </c>
       <c r="C9">
-        <v>0.6914201830635989</v>
+        <v>0.6914201830638547</v>
       </c>
       <c r="D9">
-        <v>0.2775941512722113</v>
+        <v>0.277594151272254</v>
       </c>
       <c r="E9">
-        <v>0.07305426432861495</v>
+        <v>0.07305426432852968</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.48941191115981</v>
+        <v>11.48941191116018</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01174148833706923</v>
+        <v>0.01174148833712874</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1777008566779017</v>
+        <v>0.1777008566777809</v>
       </c>
       <c r="L9">
-        <v>0.8663716470584788</v>
+        <v>0.8663716470584291</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.33087916823348</v>
+        <v>4.330879168232912</v>
       </c>
       <c r="C10">
-        <v>0.8695772909655659</v>
+        <v>0.8695772909651964</v>
       </c>
       <c r="D10">
-        <v>0.3375821952665632</v>
+        <v>0.3375821952659948</v>
       </c>
       <c r="E10">
-        <v>0.08516629851592583</v>
+        <v>0.08516629851592228</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.85357906108845</v>
+        <v>13.85357906108848</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01325009683141065</v>
+        <v>0.01325009683143508</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2163749849006891</v>
+        <v>0.2163749849007033</v>
       </c>
       <c r="L10">
-        <v>1.067523282208491</v>
+        <v>1.067523282208434</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.740372830809292</v>
+        <v>4.740372830809349</v>
       </c>
       <c r="C11">
-        <v>0.9577689709795436</v>
+        <v>0.9577689709798847</v>
       </c>
       <c r="D11">
-        <v>0.3665947861247503</v>
+        <v>0.3665947861243524</v>
       </c>
       <c r="E11">
-        <v>0.09102225613323256</v>
+        <v>0.09102225613319703</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.9953261775409</v>
+        <v>14.99532617754107</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01400540336146205</v>
+        <v>0.01400540336154155</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2351572033484715</v>
+        <v>0.2351572033483933</v>
       </c>
       <c r="L11">
-        <v>1.165656358568256</v>
+        <v>1.165656358568221</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.9006731185234</v>
+        <v>4.900673118523343</v>
       </c>
       <c r="C12">
-        <v>0.9924827930898914</v>
+        <v>0.9924827930915967</v>
       </c>
       <c r="D12">
-        <v>0.3778926945205541</v>
+        <v>0.3778926945195309</v>
       </c>
       <c r="E12">
-        <v>0.09330237684455867</v>
+        <v>0.09330237684451248</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.43975972949647</v>
+        <v>15.43975972949613</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01430453541736121</v>
+        <v>0.01430453541734789</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2424841509786546</v>
+        <v>0.2424841509786759</v>
       </c>
       <c r="L12">
-        <v>1.20401906762752</v>
+        <v>1.204019067627485</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.865896005240302</v>
+        <v>4.865896005239847</v>
       </c>
       <c r="C13">
-        <v>0.9849424242822806</v>
+        <v>0.984942424281968</v>
       </c>
       <c r="D13">
-        <v>0.3754444368787802</v>
+        <v>0.3754444368782401</v>
       </c>
       <c r="E13">
-        <v>0.09280828638101113</v>
+        <v>0.09280828638095784</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.34345773182633</v>
+        <v>15.34345773182656</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01423946738525839</v>
+        <v>0.01423946738513981</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2408957995699694</v>
+        <v>0.2408957995699126</v>
       </c>
       <c r="L13">
-        <v>1.195698813296936</v>
+        <v>1.1956988132969</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.75344855847311</v>
+        <v>4.753448558473394</v>
       </c>
       <c r="C14">
-        <v>0.9605965324464307</v>
+        <v>0.960596532446317</v>
       </c>
       <c r="D14">
-        <v>0.3675176042560935</v>
+        <v>0.3675176042561219</v>
       </c>
       <c r="E14">
-        <v>0.09120850273607672</v>
+        <v>0.09120850273608028</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.0316308567289</v>
+        <v>15.03163085672861</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01402972857868789</v>
+        <v>0.0140297285787998</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2357554049255199</v>
+        <v>0.2357554049256265</v>
       </c>
       <c r="L14">
-        <v>1.168786725256908</v>
+        <v>1.168786725256886</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.68529058503367</v>
+        <v>4.685290585034124</v>
       </c>
       <c r="C15">
-        <v>0.9458655708360197</v>
+        <v>0.9458655708365029</v>
       </c>
       <c r="D15">
-        <v>0.3627049284587116</v>
+        <v>0.3627049284584132</v>
       </c>
       <c r="E15">
-        <v>0.09023717973963485</v>
+        <v>0.09023717973968814</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.84228816410996</v>
+        <v>14.84228816410985</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01390307631811449</v>
+        <v>0.0139030763181478</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2326361930056464</v>
+        <v>0.232636193005618</v>
       </c>
       <c r="L15">
-        <v>1.152467348467873</v>
+        <v>1.152467348467908</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.304783898635719</v>
+        <v>4.304783898635947</v>
       </c>
       <c r="C16">
-        <v>0.8639805486631644</v>
+        <v>0.8639805486622265</v>
       </c>
       <c r="D16">
-        <v>0.3357259099851007</v>
+        <v>0.335725909984518</v>
       </c>
       <c r="E16">
-        <v>0.08479158506863271</v>
+        <v>0.08479158506850837</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.78049985732787</v>
+        <v>13.78049985732758</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01320237649082179</v>
+        <v>0.01320237649084888</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2151749201547162</v>
+        <v>0.2151749201547304</v>
       </c>
       <c r="L16">
-        <v>1.061263219064202</v>
+        <v>1.061263219064216</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.079416637809572</v>
+        <v>4.079416637809175</v>
       </c>
       <c r="C17">
-        <v>0.8157595020693975</v>
+        <v>0.8157595020688291</v>
       </c>
       <c r="D17">
-        <v>0.3196570015119988</v>
+        <v>0.3196570015116862</v>
       </c>
       <c r="E17">
-        <v>0.08154767729191903</v>
+        <v>0.08154767729204693</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.14771734538991</v>
+        <v>13.14771734538982</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01279219114861707</v>
+        <v>0.01279219114861885</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2047951688482428</v>
+        <v>0.2047951688482641</v>
       </c>
       <c r="L17">
-        <v>1.007167395690175</v>
+        <v>1.007167395690217</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.95241917107154</v>
+        <v>3.952419171071369</v>
       </c>
       <c r="C18">
-        <v>0.7886754869809636</v>
+        <v>0.7886754869809351</v>
       </c>
       <c r="D18">
-        <v>0.3105722230345407</v>
+        <v>0.310572223034697</v>
       </c>
       <c r="E18">
-        <v>0.0797135167658034</v>
+        <v>0.07971351676575367</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.78981070085322</v>
+        <v>12.789810700853</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01256252531322399</v>
+        <v>0.01256252531321511</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1989337799266622</v>
+        <v>0.1989337799267119</v>
       </c>
       <c r="L18">
-        <v>0.9766586715228769</v>
+        <v>0.9766586715229124</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>3.90984248808212</v>
       </c>
       <c r="C19">
-        <v>0.7796096138072528</v>
+        <v>0.7796096138075654</v>
       </c>
       <c r="D19">
-        <v>0.3075216640976919</v>
+        <v>0.3075216640976492</v>
       </c>
       <c r="E19">
-        <v>0.07909759818015516</v>
+        <v>0.0790975981801374</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.66960195455084</v>
+        <v>12.66960195455113</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01248575725863832</v>
+        <v>0.01248575725863033</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1969667450828183</v>
+        <v>0.1969667450827615</v>
       </c>
       <c r="L19">
-        <v>0.9664264284076367</v>
+        <v>0.9664264284076296</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.103128371412708</v>
+        <v>4.103128371412424</v>
       </c>
       <c r="C20">
-        <v>0.8208234442502658</v>
+        <v>0.8208234442498394</v>
       </c>
       <c r="D20">
-        <v>0.3213508404927126</v>
+        <v>0.3213508404927552</v>
       </c>
       <c r="E20">
-        <v>0.08188963869595156</v>
+        <v>0.08188963869591248</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.21443526340153</v>
+        <v>13.21443526340144</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01283518782277859</v>
+        <v>0.01283518782279636</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2058885738998555</v>
+        <v>0.2058885738999265</v>
       </c>
       <c r="L20">
-        <v>1.012861698789422</v>
+        <v>1.012861698789393</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.786324783526254</v>
+        <v>4.786324783526368</v>
       </c>
       <c r="C21">
-        <v>0.9677090252296239</v>
+        <v>0.9677090252311871</v>
       </c>
       <c r="D21">
-        <v>0.369836862041808</v>
+        <v>0.3698368620421348</v>
       </c>
       <c r="E21">
-        <v>0.09167657973940635</v>
+        <v>0.09167657973943832</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.12287040995881</v>
+        <v>15.12287040995903</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01409094779059217</v>
+        <v>0.01409094779059572</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2372590356999069</v>
+        <v>0.2372590356999567</v>
       </c>
       <c r="L21">
-        <v>1.176656516211615</v>
+        <v>1.176656516211622</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.264094299497629</v>
+        <v>5.264094299497458</v>
       </c>
       <c r="C22">
-        <v>1.07158865564233</v>
+        <v>1.071588655642728</v>
       </c>
       <c r="D22">
-        <v>0.403383886191591</v>
+        <v>0.4033838861922163</v>
       </c>
       <c r="E22">
-        <v>0.09844647391388861</v>
+        <v>0.09844647391384598</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.44227998967875</v>
+        <v>16.44227998967898</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01499035932345993</v>
+        <v>0.01499035932345949</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0.259041461377052</v>
       </c>
       <c r="L22">
-        <v>1.290881364877492</v>
+        <v>1.290881364877578</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.005790865214067</v>
+        <v>5.005790865213783</v>
       </c>
       <c r="C23">
-        <v>1.015305626970019</v>
+        <v>1.01530562697053</v>
       </c>
       <c r="D23">
-        <v>0.3852833475657889</v>
+        <v>0.3852833475657036</v>
       </c>
       <c r="E23">
-        <v>0.09479386921481847</v>
+        <v>0.09479386921476873</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.73045027039677</v>
+        <v>15.730450270397</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01450179774752058</v>
+        <v>0.01450179774741223</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2472809711419046</v>
+        <v>0.247280971141798</v>
       </c>
       <c r="L23">
-        <v>1.229159426801246</v>
+        <v>1.229159426801203</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.092400372735824</v>
+        <v>4.092400372735767</v>
       </c>
       <c r="C24">
-        <v>0.8185320666222253</v>
+        <v>0.8185320666228506</v>
       </c>
       <c r="D24">
-        <v>0.3205845824858358</v>
+        <v>0.3205845824849121</v>
       </c>
       <c r="E24">
-        <v>0.08173494291318661</v>
+        <v>0.08173494291322214</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.18425393412977</v>
+        <v>13.18425393412963</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01281573008104075</v>
+        <v>0.0128157300810372</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2053939182174673</v>
+        <v>0.2053939182174602</v>
       </c>
       <c r="L24">
-        <v>1.010285479199048</v>
+        <v>1.010285479199069</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.205350810644347</v>
+        <v>3.205350810644575</v>
       </c>
       <c r="C25">
-        <v>0.6306041450627902</v>
+        <v>0.6306041450629039</v>
       </c>
       <c r="D25">
-        <v>0.2566867206019623</v>
+        <v>0.2566867206023034</v>
       </c>
       <c r="E25">
-        <v>0.06883132905392841</v>
+        <v>0.06883132905384315</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.6637638251658</v>
+        <v>10.66376382516563</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01123034614025142</v>
+        <v>0.01123034614023055</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1642775742375733</v>
+        <v>0.1642775742375093</v>
       </c>
       <c r="L25">
-        <v>0.7968325313852418</v>
+        <v>0.7968325313851494</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.607317068374812</v>
+        <v>2.607317068374755</v>
       </c>
       <c r="C2">
-        <v>0.5055014102222515</v>
+        <v>0.5055014102231326</v>
       </c>
       <c r="D2">
-        <v>0.2129798539122021</v>
+        <v>0.2129798539121879</v>
       </c>
       <c r="E2">
-        <v>0.0599997977124751</v>
+        <v>0.05999979771246444</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.933369603128483</v>
+        <v>8.933369603128511</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01018111490073492</v>
+        <v>0.01018111490067852</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1363225968433213</v>
+        <v>0.1363225968432964</v>
       </c>
       <c r="L2">
-        <v>0.6524556434211775</v>
+        <v>0.6524556434211846</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.225831876872405</v>
+        <v>2.225831876872689</v>
       </c>
       <c r="C3">
-        <v>0.4262804207452859</v>
+        <v>0.4262804207457123</v>
       </c>
       <c r="D3">
-        <v>0.1848134697655439</v>
+        <v>0.1848134697655581</v>
       </c>
       <c r="E3">
-        <v>0.05430514313192703</v>
+        <v>0.05430514313181689</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.813804342788444</v>
+        <v>7.813804342788387</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.009515006802053749</v>
+        <v>0.00951500680200601</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1183947414216533</v>
+        <v>0.1183947414216959</v>
       </c>
       <c r="L3">
         <v>0.5601717224352285</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.000619037679257</v>
+        <v>2.000619037679485</v>
       </c>
       <c r="C4">
-        <v>0.3796902254292434</v>
+        <v>0.3796902254306644</v>
       </c>
       <c r="D4">
-        <v>0.1680722413609885</v>
+        <v>0.1680722413607896</v>
       </c>
       <c r="E4">
-        <v>0.05091878997741794</v>
+        <v>0.05091878997736998</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.146062402901464</v>
+        <v>7.146062402901379</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.009120992732495337</v>
+        <v>0.009120992732484456</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1077772204813812</v>
+        <v>0.1077772204813741</v>
       </c>
       <c r="L4">
         <v>0.5056275365915752</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.91076745180689</v>
+        <v>1.910767451807402</v>
       </c>
       <c r="C5">
-        <v>0.3611334852881214</v>
+        <v>0.361133485288093</v>
       </c>
       <c r="D5">
-        <v>0.1613682483111631</v>
+        <v>0.1613682483113337</v>
       </c>
       <c r="E5">
-        <v>0.04956231701661729</v>
+        <v>0.04956231701670077</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.878069583642713</v>
+        <v>6.878069583642684</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.008963299700521343</v>
+        <v>0.008963299700479377</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.103534454160215</v>
+        <v>0.1035344541602328</v>
       </c>
       <c r="L5">
-        <v>0.4838539992470601</v>
+        <v>0.4838539992470459</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.895954727613656</v>
+        <v>1.89595472761377</v>
       </c>
       <c r="C6">
-        <v>0.3580757666162526</v>
+        <v>0.3580757666161958</v>
       </c>
       <c r="D6">
-        <v>0.1602616348213104</v>
+        <v>0.1602616348215093</v>
       </c>
       <c r="E6">
-        <v>0.04933838171819183</v>
+        <v>0.04933838171818117</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.833796034894704</v>
+        <v>6.833796034894732</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.008937264628580133</v>
+        <v>0.008937264628595898</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1028346376607168</v>
+        <v>0.1028346376606812</v>
       </c>
       <c r="L6">
-        <v>0.4802638087347546</v>
+        <v>0.4802638087347262</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.99939989600324</v>
+        <v>1.999399896003354</v>
       </c>
       <c r="C7">
-        <v>0.3794383308990632</v>
+        <v>0.3794383308994611</v>
       </c>
       <c r="D7">
-        <v>0.1679813760195259</v>
+        <v>0.1679813760196964</v>
       </c>
       <c r="E7">
-        <v>0.05090040615800362</v>
+        <v>0.05090040615798053</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.142432505005957</v>
+        <v>7.142432505005985</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.009118855491035971</v>
+        <v>0.009118855491057953</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1077196784809011</v>
+        <v>0.1077196784809829</v>
       </c>
       <c r="L7">
-        <v>0.5053321509536985</v>
+        <v>0.5053321509536914</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.473685994826781</v>
+        <v>2.473685994826894</v>
       </c>
       <c r="C8">
-        <v>0.4777037421773969</v>
+        <v>0.4777037421774537</v>
       </c>
       <c r="D8">
-        <v>0.203139820835645</v>
+        <v>0.2031398208352186</v>
       </c>
       <c r="E8">
-        <v>0.05801069113107005</v>
+        <v>0.05801069113092083</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.54272358790152</v>
+        <v>8.542723587901463</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.009947747345110391</v>
+        <v>0.009947747345104618</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1300509174551152</v>
+        <v>0.1300509174551081</v>
       </c>
       <c r="L8">
-        <v>0.6201452832503378</v>
+        <v>0.6201452832502952</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.493946605104441</v>
+        <v>3.493946605104384</v>
       </c>
       <c r="C9">
-        <v>0.6914201830638547</v>
+        <v>0.6914201830635989</v>
       </c>
       <c r="D9">
-        <v>0.277594151272254</v>
+        <v>0.2775941512722113</v>
       </c>
       <c r="E9">
-        <v>0.07305426432852968</v>
+        <v>0.07305426432861495</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.48941191116018</v>
+        <v>11.48941191115981</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01174148833712874</v>
+        <v>0.01174148833706923</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1777008566777809</v>
+        <v>0.1777008566779017</v>
       </c>
       <c r="L9">
-        <v>0.8663716470584291</v>
+        <v>0.8663716470584788</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.330879168232912</v>
+        <v>4.33087916823348</v>
       </c>
       <c r="C10">
-        <v>0.8695772909651964</v>
+        <v>0.8695772909655659</v>
       </c>
       <c r="D10">
-        <v>0.3375821952659948</v>
+        <v>0.3375821952665632</v>
       </c>
       <c r="E10">
-        <v>0.08516629851592228</v>
+        <v>0.08516629851592583</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.85357906108848</v>
+        <v>13.85357906108845</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01325009683143508</v>
+        <v>0.01325009683141065</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2163749849007033</v>
+        <v>0.2163749849006891</v>
       </c>
       <c r="L10">
-        <v>1.067523282208434</v>
+        <v>1.067523282208491</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.740372830809349</v>
+        <v>4.740372830809292</v>
       </c>
       <c r="C11">
-        <v>0.9577689709798847</v>
+        <v>0.9577689709795436</v>
       </c>
       <c r="D11">
-        <v>0.3665947861243524</v>
+        <v>0.3665947861247503</v>
       </c>
       <c r="E11">
-        <v>0.09102225613319703</v>
+        <v>0.09102225613323256</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.99532617754107</v>
+        <v>14.9953261775409</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01400540336154155</v>
+        <v>0.01400540336146205</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2351572033483933</v>
+        <v>0.2351572033484715</v>
       </c>
       <c r="L11">
-        <v>1.165656358568221</v>
+        <v>1.165656358568256</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.900673118523343</v>
+        <v>4.9006731185234</v>
       </c>
       <c r="C12">
-        <v>0.9924827930915967</v>
+        <v>0.9924827930898914</v>
       </c>
       <c r="D12">
-        <v>0.3778926945195309</v>
+        <v>0.3778926945205541</v>
       </c>
       <c r="E12">
-        <v>0.09330237684451248</v>
+        <v>0.09330237684455867</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.43975972949613</v>
+        <v>15.43975972949647</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01430453541734789</v>
+        <v>0.01430453541736121</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2424841509786759</v>
+        <v>0.2424841509786546</v>
       </c>
       <c r="L12">
-        <v>1.204019067627485</v>
+        <v>1.20401906762752</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.865896005239847</v>
+        <v>4.865896005240302</v>
       </c>
       <c r="C13">
-        <v>0.984942424281968</v>
+        <v>0.9849424242822806</v>
       </c>
       <c r="D13">
-        <v>0.3754444368782401</v>
+        <v>0.3754444368787802</v>
       </c>
       <c r="E13">
-        <v>0.09280828638095784</v>
+        <v>0.09280828638101113</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.34345773182656</v>
+        <v>15.34345773182633</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01423946738513981</v>
+        <v>0.01423946738525839</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2408957995699126</v>
+        <v>0.2408957995699694</v>
       </c>
       <c r="L13">
-        <v>1.1956988132969</v>
+        <v>1.195698813296936</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.753448558473394</v>
+        <v>4.75344855847311</v>
       </c>
       <c r="C14">
-        <v>0.960596532446317</v>
+        <v>0.9605965324464307</v>
       </c>
       <c r="D14">
-        <v>0.3675176042561219</v>
+        <v>0.3675176042560935</v>
       </c>
       <c r="E14">
-        <v>0.09120850273608028</v>
+        <v>0.09120850273607672</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.03163085672861</v>
+        <v>15.0316308567289</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0140297285787998</v>
+        <v>0.01402972857868789</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2357554049256265</v>
+        <v>0.2357554049255199</v>
       </c>
       <c r="L14">
-        <v>1.168786725256886</v>
+        <v>1.168786725256908</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.685290585034124</v>
+        <v>4.68529058503367</v>
       </c>
       <c r="C15">
-        <v>0.9458655708365029</v>
+        <v>0.9458655708360197</v>
       </c>
       <c r="D15">
-        <v>0.3627049284584132</v>
+        <v>0.3627049284587116</v>
       </c>
       <c r="E15">
-        <v>0.09023717973968814</v>
+        <v>0.09023717973963485</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.84228816410985</v>
+        <v>14.84228816410996</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0139030763181478</v>
+        <v>0.01390307631811449</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.232636193005618</v>
+        <v>0.2326361930056464</v>
       </c>
       <c r="L15">
-        <v>1.152467348467908</v>
+        <v>1.152467348467873</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.304783898635947</v>
+        <v>4.304783898635719</v>
       </c>
       <c r="C16">
-        <v>0.8639805486622265</v>
+        <v>0.8639805486631644</v>
       </c>
       <c r="D16">
-        <v>0.335725909984518</v>
+        <v>0.3357259099851007</v>
       </c>
       <c r="E16">
-        <v>0.08479158506850837</v>
+        <v>0.08479158506863271</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.78049985732758</v>
+        <v>13.78049985732787</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01320237649084888</v>
+        <v>0.01320237649082179</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2151749201547304</v>
+        <v>0.2151749201547162</v>
       </c>
       <c r="L16">
-        <v>1.061263219064216</v>
+        <v>1.061263219064202</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.079416637809175</v>
+        <v>4.079416637809572</v>
       </c>
       <c r="C17">
-        <v>0.8157595020688291</v>
+        <v>0.8157595020693975</v>
       </c>
       <c r="D17">
-        <v>0.3196570015116862</v>
+        <v>0.3196570015119988</v>
       </c>
       <c r="E17">
-        <v>0.08154767729204693</v>
+        <v>0.08154767729191903</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.14771734538982</v>
+        <v>13.14771734538991</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01279219114861885</v>
+        <v>0.01279219114861707</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2047951688482641</v>
+        <v>0.2047951688482428</v>
       </c>
       <c r="L17">
-        <v>1.007167395690217</v>
+        <v>1.007167395690175</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.952419171071369</v>
+        <v>3.95241917107154</v>
       </c>
       <c r="C18">
-        <v>0.7886754869809351</v>
+        <v>0.7886754869809636</v>
       </c>
       <c r="D18">
-        <v>0.310572223034697</v>
+        <v>0.3105722230345407</v>
       </c>
       <c r="E18">
-        <v>0.07971351676575367</v>
+        <v>0.0797135167658034</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.789810700853</v>
+        <v>12.78981070085322</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01256252531321511</v>
+        <v>0.01256252531322399</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1989337799267119</v>
+        <v>0.1989337799266622</v>
       </c>
       <c r="L18">
-        <v>0.9766586715229124</v>
+        <v>0.9766586715228769</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>3.90984248808212</v>
       </c>
       <c r="C19">
-        <v>0.7796096138075654</v>
+        <v>0.7796096138072528</v>
       </c>
       <c r="D19">
-        <v>0.3075216640976492</v>
+        <v>0.3075216640976919</v>
       </c>
       <c r="E19">
-        <v>0.0790975981801374</v>
+        <v>0.07909759818015516</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.66960195455113</v>
+        <v>12.66960195455084</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01248575725863033</v>
+        <v>0.01248575725863832</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1969667450827615</v>
+        <v>0.1969667450828183</v>
       </c>
       <c r="L19">
-        <v>0.9664264284076296</v>
+        <v>0.9664264284076367</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.103128371412424</v>
+        <v>4.103128371412708</v>
       </c>
       <c r="C20">
-        <v>0.8208234442498394</v>
+        <v>0.8208234442502658</v>
       </c>
       <c r="D20">
-        <v>0.3213508404927552</v>
+        <v>0.3213508404927126</v>
       </c>
       <c r="E20">
-        <v>0.08188963869591248</v>
+        <v>0.08188963869595156</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.21443526340144</v>
+        <v>13.21443526340153</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01283518782279636</v>
+        <v>0.01283518782277859</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2058885738999265</v>
+        <v>0.2058885738998555</v>
       </c>
       <c r="L20">
-        <v>1.012861698789393</v>
+        <v>1.012861698789422</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.786324783526368</v>
+        <v>4.786324783526254</v>
       </c>
       <c r="C21">
-        <v>0.9677090252311871</v>
+        <v>0.9677090252296239</v>
       </c>
       <c r="D21">
-        <v>0.3698368620421348</v>
+        <v>0.369836862041808</v>
       </c>
       <c r="E21">
-        <v>0.09167657973943832</v>
+        <v>0.09167657973940635</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.12287040995903</v>
+        <v>15.12287040995881</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01409094779059572</v>
+        <v>0.01409094779059217</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2372590356999567</v>
+        <v>0.2372590356999069</v>
       </c>
       <c r="L21">
-        <v>1.176656516211622</v>
+        <v>1.176656516211615</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.264094299497458</v>
+        <v>5.264094299497629</v>
       </c>
       <c r="C22">
-        <v>1.071588655642728</v>
+        <v>1.07158865564233</v>
       </c>
       <c r="D22">
-        <v>0.4033838861922163</v>
+        <v>0.403383886191591</v>
       </c>
       <c r="E22">
-        <v>0.09844647391384598</v>
+        <v>0.09844647391388861</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.44227998967898</v>
+        <v>16.44227998967875</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01499035932345949</v>
+        <v>0.01499035932345993</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0.259041461377052</v>
       </c>
       <c r="L22">
-        <v>1.290881364877578</v>
+        <v>1.290881364877492</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.005790865213783</v>
+        <v>5.005790865214067</v>
       </c>
       <c r="C23">
-        <v>1.01530562697053</v>
+        <v>1.015305626970019</v>
       </c>
       <c r="D23">
-        <v>0.3852833475657036</v>
+        <v>0.3852833475657889</v>
       </c>
       <c r="E23">
-        <v>0.09479386921476873</v>
+        <v>0.09479386921481847</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.730450270397</v>
+        <v>15.73045027039677</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01450179774741223</v>
+        <v>0.01450179774752058</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.247280971141798</v>
+        <v>0.2472809711419046</v>
       </c>
       <c r="L23">
-        <v>1.229159426801203</v>
+        <v>1.229159426801246</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.092400372735767</v>
+        <v>4.092400372735824</v>
       </c>
       <c r="C24">
-        <v>0.8185320666228506</v>
+        <v>0.8185320666222253</v>
       </c>
       <c r="D24">
-        <v>0.3205845824849121</v>
+        <v>0.3205845824858358</v>
       </c>
       <c r="E24">
-        <v>0.08173494291322214</v>
+        <v>0.08173494291318661</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.18425393412963</v>
+        <v>13.18425393412977</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0128157300810372</v>
+        <v>0.01281573008104075</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2053939182174602</v>
+        <v>0.2053939182174673</v>
       </c>
       <c r="L24">
-        <v>1.010285479199069</v>
+        <v>1.010285479199048</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.205350810644575</v>
+        <v>3.205350810644347</v>
       </c>
       <c r="C25">
-        <v>0.6306041450629039</v>
+        <v>0.6306041450627902</v>
       </c>
       <c r="D25">
-        <v>0.2566867206023034</v>
+        <v>0.2566867206019623</v>
       </c>
       <c r="E25">
-        <v>0.06883132905384315</v>
+        <v>0.06883132905392841</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.66376382516563</v>
+        <v>10.6637638251658</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01123034614023055</v>
+        <v>0.01123034614025142</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1642775742375093</v>
+        <v>0.1642775742375733</v>
       </c>
       <c r="L25">
-        <v>0.7968325313851494</v>
+        <v>0.7968325313852418</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.607317068374755</v>
+        <v>2.606719276284991</v>
       </c>
       <c r="C2">
-        <v>0.5055014102231326</v>
+        <v>0.5051787749754908</v>
       </c>
       <c r="D2">
-        <v>0.2129798539121879</v>
+        <v>0.2129511654495957</v>
       </c>
       <c r="E2">
-        <v>0.05999979771246444</v>
+        <v>0.05996717716040223</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.933369603128511</v>
+        <v>2.91335342324129</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.970132519519836</v>
       </c>
       <c r="I2">
-        <v>0.01018111490067852</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01016450979427219</v>
       </c>
       <c r="K2">
-        <v>0.1363225968432964</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6524556434211846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1363101114483882</v>
+      </c>
+      <c r="M2">
+        <v>0.6523600581105455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.225831876872689</v>
+        <v>2.2254854831275</v>
       </c>
       <c r="C3">
-        <v>0.4262804207457123</v>
+        <v>0.4260656283555875</v>
       </c>
       <c r="D3">
-        <v>0.1848134697655581</v>
+        <v>0.1847943450249119</v>
       </c>
       <c r="E3">
-        <v>0.05430514313181689</v>
+        <v>0.05428023449632491</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.813804342788387</v>
+        <v>2.539360874235854</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.23206519667761</v>
       </c>
       <c r="I3">
-        <v>0.00951500680200601</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.009502531151375893</v>
       </c>
       <c r="K3">
-        <v>0.1183947414216959</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5601717224352285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1183877949493848</v>
+      </c>
+      <c r="M3">
+        <v>0.5601204022359738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.000619037679485</v>
+        <v>2.000391648539107</v>
       </c>
       <c r="C4">
-        <v>0.3796902254306644</v>
+        <v>0.3795307722038501</v>
       </c>
       <c r="D4">
-        <v>0.1680722413607896</v>
+        <v>0.168057941052794</v>
       </c>
       <c r="E4">
-        <v>0.05091878997736998</v>
+        <v>0.05089841943407514</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.146062402901379</v>
+        <v>2.316234426195109</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.791902837497418</v>
       </c>
       <c r="I4">
-        <v>0.009120992732484456</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.009110905048192119</v>
       </c>
       <c r="K4">
-        <v>0.1077772204813741</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5056275365915752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1077728136034892</v>
+      </c>
+      <c r="M4">
+        <v>0.505596478241209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.910767451807402</v>
+        <v>1.910581223371878</v>
       </c>
       <c r="C5">
-        <v>0.361133485288093</v>
+        <v>0.3609943402124429</v>
       </c>
       <c r="D5">
-        <v>0.1613682483113337</v>
+        <v>0.1613557087556785</v>
       </c>
       <c r="E5">
-        <v>0.04956231701670077</v>
+        <v>0.04954376243701297</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.878069583642684</v>
+        <v>2.226668757746864</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.615259117965394</v>
       </c>
       <c r="I5">
-        <v>0.008963299700479377</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00895415668597721</v>
       </c>
       <c r="K5">
-        <v>0.1035344541602328</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4838539992470459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1035309081189375</v>
+      </c>
+      <c r="M5">
+        <v>0.4838297690317575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.89595472761377</v>
+        <v>1.895774930754953</v>
       </c>
       <c r="C6">
-        <v>0.3580757666161958</v>
+        <v>0.3579398708649251</v>
       </c>
       <c r="D6">
-        <v>0.1602616348215093</v>
+        <v>0.1602493767114481</v>
       </c>
       <c r="E6">
-        <v>0.04933838171818117</v>
+        <v>0.04932012707756783</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.833796034894732</v>
+        <v>2.211871207781172</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.586077572928616</v>
       </c>
       <c r="I6">
-        <v>0.008937264628595898</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.008928276981640337</v>
       </c>
       <c r="K6">
-        <v>0.1028346376606812</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4802638087347262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1028312251249517</v>
+      </c>
+      <c r="M6">
+        <v>0.4802406339683571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.999399896003354</v>
+        <v>1.999173089830435</v>
       </c>
       <c r="C7">
-        <v>0.3794383308994611</v>
+        <v>0.3792791600547218</v>
       </c>
       <c r="D7">
-        <v>0.1679813760196964</v>
+        <v>0.1679671002204088</v>
       </c>
       <c r="E7">
-        <v>0.05090040615798053</v>
+        <v>0.05088006022138281</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.142432505005985</v>
+        <v>2.315021343531839</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.789510191420192</v>
       </c>
       <c r="I7">
-        <v>0.009118855491057953</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.009108780651765569</v>
       </c>
       <c r="K7">
-        <v>0.1077196784809829</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5053321509536914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1077152838676056</v>
+      </c>
+      <c r="M7">
+        <v>0.5053011901088382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.473685994826894</v>
+        <v>2.473183262220971</v>
       </c>
       <c r="C8">
-        <v>0.4777037421774537</v>
+        <v>0.4774208767171331</v>
       </c>
       <c r="D8">
-        <v>0.2031398208352186</v>
+        <v>0.2031146867149261</v>
       </c>
       <c r="E8">
-        <v>0.05801069113092083</v>
+        <v>0.05798078140677276</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.542723587901463</v>
+        <v>2.782872156110017</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.712592938179142</v>
       </c>
       <c r="I8">
-        <v>0.009947747345104618</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.00993260243545846</v>
       </c>
       <c r="K8">
-        <v>0.1300509174551081</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6201452832502952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1300405492948613</v>
+      </c>
+      <c r="M8">
+        <v>0.6200666042557046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.493946605104384</v>
+        <v>3.492530722989443</v>
       </c>
       <c r="C9">
-        <v>0.6914201830635989</v>
+        <v>0.6907796527426058</v>
       </c>
       <c r="D9">
-        <v>0.2775941512722113</v>
+        <v>0.2775358883520767</v>
       </c>
       <c r="E9">
-        <v>0.07305426432861495</v>
+        <v>0.07300307578486809</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.48941191115981</v>
+        <v>3.76677274129608</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.655364148089205</v>
       </c>
       <c r="I9">
-        <v>0.01174148833706923</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.01171473117925403</v>
       </c>
       <c r="K9">
-        <v>0.1777008566779017</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8663716470584788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1776693830367613</v>
+      </c>
+      <c r="M9">
+        <v>0.8661261115449506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.33087916823348</v>
+        <v>4.328388248319698</v>
       </c>
       <c r="C10">
-        <v>0.8695772909655659</v>
+        <v>0.868548369471398</v>
       </c>
       <c r="D10">
-        <v>0.3375821952665632</v>
+        <v>0.3374853361970622</v>
       </c>
       <c r="E10">
-        <v>0.08516629851592583</v>
+        <v>0.08509606276767911</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.85357906108845</v>
+        <v>4.555679722187278</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.214110240657135</v>
       </c>
       <c r="I10">
-        <v>0.01325009683141065</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01321284605673778</v>
       </c>
       <c r="K10">
-        <v>0.2163749849006891</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.067523282208491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2163172005293674</v>
+      </c>
+      <c r="M10">
+        <v>1.067074568094498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.740372830809292</v>
+        <v>4.737243141413842</v>
       </c>
       <c r="C11">
-        <v>0.9577689709795436</v>
+        <v>0.956516853709843</v>
       </c>
       <c r="D11">
-        <v>0.3665947861247503</v>
+        <v>0.3664747250073219</v>
       </c>
       <c r="E11">
-        <v>0.09102225613323256</v>
+        <v>0.09094195454559184</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.9953261775409</v>
+        <v>4.93653280338458</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.966843135301303</v>
       </c>
       <c r="I11">
-        <v>0.01400540336146205</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01396263256958497</v>
       </c>
       <c r="K11">
-        <v>0.2351572033484715</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.165656358568256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2350832776348994</v>
+      </c>
+      <c r="M11">
+        <v>1.165085054810199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.9006731185234</v>
+        <v>4.897272130170222</v>
       </c>
       <c r="C12">
-        <v>0.9924827930898914</v>
+        <v>0.9911370349674939</v>
       </c>
       <c r="D12">
-        <v>0.3778926945205541</v>
+        <v>0.3777627030701751</v>
       </c>
       <c r="E12">
-        <v>0.09330237684455867</v>
+        <v>0.09321797783214336</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.43975972949647</v>
+        <v>5.084758518751016</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.25983668971435</v>
       </c>
       <c r="I12">
-        <v>0.01430453541736121</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.01425952721967505</v>
       </c>
       <c r="K12">
-        <v>0.2424841509786546</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.20401906762752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2424032756900587</v>
+      </c>
+      <c r="M12">
+        <v>1.203395383326949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.865896005240302</v>
+        <v>4.862554913979181</v>
       </c>
       <c r="C13">
-        <v>0.9849424242822806</v>
+        <v>0.9836172883190386</v>
       </c>
       <c r="D13">
-        <v>0.3754444368787802</v>
+        <v>0.3753166418292722</v>
       </c>
       <c r="E13">
-        <v>0.09280828638101113</v>
+        <v>0.0927247842422716</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.34345773182633</v>
+        <v>5.052641407065664</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.19635016471375</v>
       </c>
       <c r="I13">
-        <v>0.01423946738525839</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.01419494839230895</v>
       </c>
       <c r="K13">
-        <v>0.2408957995699694</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.195698813296936</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2408164630975733</v>
+      </c>
+      <c r="M13">
+        <v>1.195086708109613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.75344855847311</v>
+        <v>4.750297194999007</v>
       </c>
       <c r="C14">
-        <v>0.9605965324464307</v>
+        <v>0.959336911466437</v>
       </c>
       <c r="D14">
-        <v>0.3675176042560935</v>
+        <v>0.3673967515053818</v>
       </c>
       <c r="E14">
-        <v>0.09120850273607672</v>
+        <v>0.09112787038076675</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.0316308567289</v>
+        <v>4.94864150350395</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.990777367535429</v>
       </c>
       <c r="I14">
-        <v>0.01402972857868789</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.01398677694348738</v>
       </c>
       <c r="K14">
-        <v>0.2357554049255199</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.168786725256908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2356809259597625</v>
+      </c>
+      <c r="M14">
+        <v>1.168211243179698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.68529058503367</v>
+        <v>4.682251318307749</v>
       </c>
       <c r="C15">
-        <v>0.9458655708360197</v>
+        <v>0.9446448034384218</v>
       </c>
       <c r="D15">
-        <v>0.3627049284587116</v>
+        <v>0.3625881668190942</v>
       </c>
       <c r="E15">
-        <v>0.09023717973963485</v>
+        <v>0.09015826493111945</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.84228816410996</v>
+        <v>4.885489040320408</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.865950675950842</v>
       </c>
       <c r="I15">
-        <v>0.01390307631811449</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.01386106414599197</v>
       </c>
       <c r="K15">
-        <v>0.2326361930056464</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.152467348467873</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2325645716632749</v>
+      </c>
+      <c r="M15">
+        <v>1.151913463948333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.304783898635719</v>
+        <v>4.302331103789356</v>
       </c>
       <c r="C16">
-        <v>0.8639805486631644</v>
+        <v>0.8629650898803618</v>
       </c>
       <c r="D16">
-        <v>0.3357259099851007</v>
+        <v>0.3356304281811475</v>
       </c>
       <c r="E16">
-        <v>0.08479158506863271</v>
+        <v>0.08472197246872426</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.78049985732787</v>
+        <v>4.531299602424838</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.165929062022599</v>
       </c>
       <c r="I16">
-        <v>0.01320237649082179</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01316546836136467</v>
       </c>
       <c r="K16">
-        <v>0.2151749201547162</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.061263219064202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2151180885161068</v>
+      </c>
+      <c r="M16">
+        <v>1.060821784830395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.079416637809572</v>
+        <v>4.077280545864312</v>
       </c>
       <c r="C17">
-        <v>0.8157595020693975</v>
+        <v>0.8148566167787976</v>
       </c>
       <c r="D17">
-        <v>0.3196570015119988</v>
+        <v>0.3195729309554878</v>
       </c>
       <c r="E17">
-        <v>0.08154767729191903</v>
+        <v>0.08148336195357686</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.14771734538991</v>
+        <v>4.320180042976631</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.748729544310976</v>
       </c>
       <c r="I17">
-        <v>0.01279219114861707</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.01275819891710128</v>
       </c>
       <c r="K17">
-        <v>0.2047951688482428</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.007167395690175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2047462003787857</v>
+      </c>
+      <c r="M17">
+        <v>1.006786250336361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.95241917107154</v>
+        <v>3.950451752956667</v>
       </c>
       <c r="C18">
-        <v>0.7886754869809636</v>
+        <v>0.7878331600679189</v>
       </c>
       <c r="D18">
-        <v>0.3105722230345407</v>
+        <v>0.3104942105685495</v>
       </c>
       <c r="E18">
-        <v>0.0797135167658034</v>
+        <v>0.07965212289726509</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.78981070085322</v>
+        <v>4.200756749487567</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.512754668326778</v>
       </c>
       <c r="I18">
-        <v>0.01256252531322399</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.01253014301027733</v>
       </c>
       <c r="K18">
-        <v>0.1989337799266622</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9766586715228769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1988889598707075</v>
+      </c>
+      <c r="M18">
+        <v>0.9763094891025759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.90984248808212</v>
+        <v>3.907930058203078</v>
       </c>
       <c r="C19">
-        <v>0.7796096138072528</v>
+        <v>0.778787131270775</v>
       </c>
       <c r="D19">
-        <v>0.3075216640976919</v>
+        <v>0.3074456240940577</v>
       </c>
       <c r="E19">
-        <v>0.07909759818015516</v>
+        <v>0.07903717401025645</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.66960195455084</v>
+        <v>4.160644460169152</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.433498220516583</v>
       </c>
       <c r="I19">
-        <v>0.01248575725863832</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.01245390949723468</v>
       </c>
       <c r="K19">
-        <v>0.1969667450828183</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9664264284076367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1969232711124747</v>
+      </c>
+      <c r="M19">
+        <v>0.9660876418517148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.103128371412708</v>
+        <v>4.100960009364144</v>
       </c>
       <c r="C20">
-        <v>0.8208234442502658</v>
+        <v>0.819909023848254</v>
       </c>
       <c r="D20">
-        <v>0.3213508404927126</v>
+        <v>0.3212656094869857</v>
       </c>
       <c r="E20">
-        <v>0.08188963869595156</v>
+        <v>0.08182477294072399</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.21443526340153</v>
+        <v>4.342440919369722</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.79271771882847</v>
       </c>
       <c r="I20">
-        <v>0.01283518782277859</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.01280089238944448</v>
       </c>
       <c r="K20">
-        <v>0.2058885738998555</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.012861698789422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2058388085437457</v>
+      </c>
+      <c r="M20">
+        <v>1.012474426234284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.786324783526254</v>
+        <v>4.783118569122053</v>
       </c>
       <c r="C21">
-        <v>0.9677090252296239</v>
+        <v>0.9664304326457227</v>
       </c>
       <c r="D21">
-        <v>0.369836862041808</v>
+        <v>0.3697140045767071</v>
       </c>
       <c r="E21">
-        <v>0.09167657973940635</v>
+        <v>0.09159511305398027</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.12287040995881</v>
+        <v>4.979072234244882</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.05092774060097</v>
       </c>
       <c r="I21">
-        <v>0.01409094779059217</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.01404754016833554</v>
       </c>
       <c r="K21">
-        <v>0.2372590356999069</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.176656516211615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2371831550746677</v>
+      </c>
+      <c r="M21">
+        <v>1.176070454955834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.264094299497629</v>
+        <v>5.260032097652868</v>
       </c>
       <c r="C22">
-        <v>1.07158865564233</v>
+        <v>1.070016966031034</v>
       </c>
       <c r="D22">
-        <v>0.403383886191591</v>
+        <v>0.4032294970068051</v>
       </c>
       <c r="E22">
-        <v>0.09844647391388861</v>
+        <v>0.09835242504706798</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.44227998967875</v>
+        <v>5.419065278078847</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.92071543733869</v>
       </c>
       <c r="I22">
-        <v>0.01499035932345993</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.01494010816709279</v>
       </c>
       <c r="K22">
-        <v>0.259041461377052</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.290881364877492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2589434404505866</v>
+      </c>
+      <c r="M22">
+        <v>1.290129355596221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.005790865214067</v>
+        <v>5.002205289148094</v>
       </c>
       <c r="C23">
-        <v>1.015305626970019</v>
+        <v>1.013896489562228</v>
       </c>
       <c r="D23">
-        <v>0.3852833475657889</v>
+        <v>0.3851465730528076</v>
       </c>
       <c r="E23">
-        <v>0.09479386921481847</v>
+        <v>0.09470673182590161</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.73045027039677</v>
+        <v>5.18170114962362</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.45147012676603</v>
       </c>
       <c r="I23">
-        <v>0.01450179774752058</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.01445529782823263</v>
       </c>
       <c r="K23">
-        <v>0.2472809711419046</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.229159426801246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2471953381188143</v>
+      </c>
+      <c r="M23">
+        <v>1.228500008978465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.092400372735824</v>
+        <v>4.090246641200281</v>
       </c>
       <c r="C24">
-        <v>0.8185320666222253</v>
+        <v>0.8176228740391878</v>
       </c>
       <c r="D24">
-        <v>0.3205845824858358</v>
+        <v>0.3204998776600547</v>
       </c>
       <c r="E24">
-        <v>0.08173494291318661</v>
+        <v>0.08167032638193206</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.18425393412977</v>
+        <v>4.33237075720541</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.77281870383635</v>
       </c>
       <c r="I24">
-        <v>0.01281573008104075</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.01278157192951035</v>
       </c>
       <c r="K24">
-        <v>0.2053939182174673</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.010285479199048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2053445142767387</v>
+      </c>
+      <c r="M24">
+        <v>1.009900985042698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.205350810644347</v>
+        <v>3.204236884534225</v>
       </c>
       <c r="C25">
-        <v>0.6306041450627902</v>
+        <v>0.6300774305975665</v>
       </c>
       <c r="D25">
-        <v>0.2566867206019623</v>
+        <v>0.2566392760064531</v>
       </c>
       <c r="E25">
-        <v>0.06883132905392841</v>
+        <v>0.06878632622465375</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.6637638251658</v>
+        <v>3.491161923921339</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.110990148583738</v>
       </c>
       <c r="I25">
-        <v>0.01123034614025142</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.01120699064733888</v>
       </c>
       <c r="K25">
-        <v>0.1642775742375733</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7968325313852418</v>
+        <v>0.1642532419641007</v>
+      </c>
+      <c r="M25">
+        <v>0.7966430241194189</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.606719276284991</v>
+        <v>5.665460918368524</v>
       </c>
       <c r="C2">
-        <v>0.5051787749754908</v>
+        <v>0.760529535805631</v>
       </c>
       <c r="D2">
-        <v>0.2129511654495957</v>
+        <v>0.2087150885134434</v>
       </c>
       <c r="E2">
-        <v>0.05996717716040223</v>
+        <v>0.03413456386610481</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.91335342324129</v>
+        <v>0.000841171379965826</v>
       </c>
       <c r="H2">
-        <v>5.970132519519836</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01016450979427219</v>
+        <v>0.0223980112723261</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1363101114483882</v>
+        <v>0.5339589500926536</v>
       </c>
       <c r="M2">
-        <v>0.6523600581105455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.909963729645028</v>
+      </c>
+      <c r="O2">
+        <v>3.144295259575202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.2254854831275</v>
+        <v>5.015125414576289</v>
       </c>
       <c r="C3">
-        <v>0.4260656283555875</v>
+        <v>0.6553157529026521</v>
       </c>
       <c r="D3">
-        <v>0.1847943450249119</v>
+        <v>0.1966695069478277</v>
       </c>
       <c r="E3">
-        <v>0.05428023449632491</v>
+        <v>0.0341552396586513</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.539360874235854</v>
+        <v>0.000852998905248685</v>
       </c>
       <c r="H3">
-        <v>5.23206519667761</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009502531151375893</v>
+        <v>0.02036263705901398</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1183877949493848</v>
+        <v>0.4843919808055972</v>
       </c>
       <c r="M3">
-        <v>0.5601204022359738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.936535583714289</v>
+      </c>
+      <c r="O3">
+        <v>2.92504393305083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.000391648539107</v>
+        <v>4.627566295509837</v>
       </c>
       <c r="C4">
-        <v>0.3795307722038501</v>
+        <v>0.5922716895549343</v>
       </c>
       <c r="D4">
-        <v>0.168057941052794</v>
+        <v>0.1896549905049341</v>
       </c>
       <c r="E4">
-        <v>0.05089841943407514</v>
+        <v>0.03420153463545006</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.316234426195109</v>
+        <v>0.0008604240870084687</v>
       </c>
       <c r="H4">
-        <v>4.791902837497418</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.009110905048192119</v>
+        <v>0.01913073139451527</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1077728136034892</v>
+        <v>0.4550620930087632</v>
       </c>
       <c r="M4">
-        <v>0.505596478241209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.955399282438265</v>
+      </c>
+      <c r="O4">
+        <v>2.797492776662196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.910581223371878</v>
+        <v>4.472234089315407</v>
       </c>
       <c r="C5">
-        <v>0.3609943402124429</v>
+        <v>0.5669158927338174</v>
       </c>
       <c r="D5">
-        <v>0.1613557087556785</v>
+        <v>0.1868841920173026</v>
       </c>
       <c r="E5">
-        <v>0.04954376243701297</v>
+        <v>0.03422852458874104</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.226668757746864</v>
+        <v>0.000863494141288016</v>
       </c>
       <c r="H5">
-        <v>4.615259117965394</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00895415668597721</v>
+        <v>0.01863214637072552</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1035309081189375</v>
+        <v>0.4433581714314982</v>
       </c>
       <c r="M5">
-        <v>0.4838297690317575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.963684906349258</v>
+      </c>
+      <c r="O5">
+        <v>2.747112854645337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.895774930754953</v>
+        <v>4.446588769396953</v>
       </c>
       <c r="C6">
-        <v>0.3579398708649251</v>
+        <v>0.5627242862223056</v>
       </c>
       <c r="D6">
-        <v>0.1602493767114481</v>
+        <v>0.1864291727163732</v>
       </c>
       <c r="E6">
-        <v>0.04932012707756783</v>
+        <v>0.03423348808576865</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.211871207781172</v>
+        <v>0.0008640066816031218</v>
       </c>
       <c r="H6">
-        <v>4.586077572928616</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.008928276981640337</v>
+        <v>0.01854953498732215</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1028312251249517</v>
+        <v>0.4414289336742172</v>
       </c>
       <c r="M6">
-        <v>0.4802406339683571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.965095723775832</v>
+      </c>
+      <c r="O6">
+        <v>2.738838935632771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.999173089830435</v>
+        <v>4.625461338822163</v>
       </c>
       <c r="C7">
-        <v>0.3792791600547218</v>
+        <v>0.5919284456598177</v>
       </c>
       <c r="D7">
-        <v>0.1679671002204088</v>
+        <v>0.1896172778641869</v>
       </c>
       <c r="E7">
-        <v>0.05088006022138281</v>
+        <v>0.03420186614049481</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.315021343531839</v>
+        <v>0.0008604653076474403</v>
       </c>
       <c r="H7">
-        <v>4.789510191420192</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.009108780651765569</v>
+        <v>0.01912399473951787</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1077152838676056</v>
+        <v>0.4549032814200871</v>
       </c>
       <c r="M7">
-        <v>0.5053011901088382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.955508654567367</v>
+      </c>
+      <c r="O7">
+        <v>2.79680708814405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.473183262220971</v>
+        <v>5.438561845764013</v>
       </c>
       <c r="C8">
-        <v>0.4774208767171331</v>
+        <v>0.7238925380162868</v>
       </c>
       <c r="D8">
-        <v>0.2031146867149261</v>
+        <v>0.2044773342328625</v>
       </c>
       <c r="E8">
-        <v>0.05798078140677276</v>
+        <v>0.03413451274260204</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.782872156110017</v>
+        <v>0.0008452177264608451</v>
       </c>
       <c r="H8">
-        <v>5.712592938179142</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.00993260243545846</v>
+        <v>0.02169184185624928</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1300405492948613</v>
+        <v>0.5166202779910236</v>
       </c>
       <c r="M8">
-        <v>0.6200666042557046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.918569829012014</v>
+      </c>
+      <c r="O8">
+        <v>3.067115726575508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.492530722989443</v>
+        <v>7.144502542404894</v>
       </c>
       <c r="C9">
-        <v>0.6907796527426058</v>
+        <v>0.9979570566724192</v>
       </c>
       <c r="D9">
-        <v>0.2775358883520767</v>
+        <v>0.2370703814322326</v>
       </c>
       <c r="E9">
-        <v>0.07300307578486809</v>
+        <v>0.03428574896624337</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.76677274129608</v>
+        <v>0.0008164450317527442</v>
       </c>
       <c r="H9">
-        <v>7.655364148089205</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01171473117925403</v>
+        <v>0.02692364234418321</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1776693830367613</v>
+        <v>0.6479311258967755</v>
       </c>
       <c r="M9">
-        <v>0.8661261115449506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.868534948331686</v>
+      </c>
+      <c r="O9">
+        <v>3.662549289597081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.328388248319698</v>
+        <v>8.495474129501645</v>
       </c>
       <c r="C10">
-        <v>0.868548369471398</v>
+        <v>1.213408458522565</v>
       </c>
       <c r="D10">
-        <v>0.3374853361970622</v>
+        <v>0.2638117673105</v>
       </c>
       <c r="E10">
-        <v>0.08509606276767911</v>
+        <v>0.03459671801772046</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.555679722187278</v>
+        <v>0.0007957250969233284</v>
       </c>
       <c r="H10">
-        <v>9.214110240657135</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01321284605673778</v>
+        <v>0.0309772636930461</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2163172005293674</v>
+        <v>0.753150847983278</v>
       </c>
       <c r="M10">
-        <v>1.067074568094498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.848985773887208</v>
+      </c>
+      <c r="O10">
+        <v>4.154937876715877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.737243141413842</v>
+        <v>9.139384114340714</v>
       </c>
       <c r="C11">
-        <v>0.956516853709843</v>
+        <v>1.315799109824411</v>
       </c>
       <c r="D11">
-        <v>0.3664747250073219</v>
+        <v>0.2767724061578605</v>
       </c>
       <c r="E11">
-        <v>0.09094195454559184</v>
+        <v>0.03478898764793925</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.93653280338458</v>
+        <v>0.0007863172983761474</v>
       </c>
       <c r="H11">
-        <v>9.966843135301303</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01396263256958497</v>
+        <v>0.03289195625592356</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2350832776348994</v>
+        <v>0.8035950277116513</v>
       </c>
       <c r="M11">
-        <v>1.165085054810199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.844809520330884</v>
+      </c>
+      <c r="O11">
+        <v>4.39499882101299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.897272130170222</v>
+        <v>9.388263847342955</v>
       </c>
       <c r="C12">
-        <v>0.9911370349674939</v>
+        <v>1.355336492176377</v>
       </c>
       <c r="D12">
-        <v>0.3777627030701751</v>
+        <v>0.281813844096007</v>
       </c>
       <c r="E12">
-        <v>0.09321797783214336</v>
+        <v>0.03486985459017866</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.084758518751016</v>
+        <v>0.0007827499910081607</v>
       </c>
       <c r="H12">
-        <v>10.25983668971435</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01425952721967505</v>
+        <v>0.03362974963772913</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2424032756900587</v>
+        <v>0.8231369443265635</v>
       </c>
       <c r="M12">
-        <v>1.203395383326949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.844007272616111</v>
+      </c>
+      <c r="O12">
+        <v>4.488637254045443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.862554913979181</v>
+        <v>9.334423975449795</v>
       </c>
       <c r="C13">
-        <v>0.9836172883190386</v>
+        <v>1.346785004111837</v>
       </c>
       <c r="D13">
-        <v>0.3753166418292722</v>
+        <v>0.2807218002082834</v>
       </c>
       <c r="E13">
-        <v>0.0927247842422716</v>
+        <v>0.03485206658486817</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.052641407065664</v>
+        <v>0.0007835186183795075</v>
       </c>
       <c r="H13">
-        <v>10.19635016471375</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01419494839230895</v>
+        <v>0.03347023945819316</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2408164630975733</v>
+        <v>0.8189074471914637</v>
       </c>
       <c r="M13">
-        <v>1.195086708109613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.844143581126147</v>
+      </c>
+      <c r="O13">
+        <v>4.46834144659914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.750297194999007</v>
+        <v>9.159753218657443</v>
       </c>
       <c r="C14">
-        <v>0.959336911466437</v>
+        <v>1.319035696660535</v>
       </c>
       <c r="D14">
-        <v>0.3673967515053818</v>
+        <v>0.2771843705237131</v>
       </c>
       <c r="E14">
-        <v>0.09112787038076675</v>
+        <v>0.03479547431715346</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.94864150350395</v>
+        <v>0.0007860239566421789</v>
       </c>
       <c r="H14">
-        <v>9.990777367535429</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01398677694348738</v>
+        <v>0.03295238304356474</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2356809259597625</v>
+        <v>0.805193498330766</v>
       </c>
       <c r="M14">
-        <v>1.168211243179698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1.844727255850202</v>
+      </c>
+      <c r="O14">
+        <v>4.402645050755467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.682251318307749</v>
+        <v>9.053446421494186</v>
       </c>
       <c r="C15">
-        <v>0.9446448034384218</v>
+        <v>1.302142392740564</v>
       </c>
       <c r="D15">
-        <v>0.3625881668190942</v>
+        <v>0.27503560691693</v>
       </c>
       <c r="E15">
-        <v>0.09015826493111945</v>
+        <v>0.03476188402760272</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.885489040320408</v>
+        <v>0.0007875576857796472</v>
       </c>
       <c r="H15">
-        <v>9.865950675950842</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01386106414599197</v>
+        <v>0.03263692534571305</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2325645716632749</v>
+        <v>0.7968528454837269</v>
       </c>
       <c r="M15">
-        <v>1.151913463948333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1.845189569763463</v>
+      </c>
+      <c r="O15">
+        <v>4.362773817434146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.302331103789356</v>
+        <v>8.454050799631545</v>
       </c>
       <c r="C16">
-        <v>0.8629650898803618</v>
+        <v>1.206816064935879</v>
       </c>
       <c r="D16">
-        <v>0.3356304281811475</v>
+        <v>0.2629823287592501</v>
       </c>
       <c r="E16">
-        <v>0.08472197246872426</v>
+        <v>0.0345852364743866</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.531299602424838</v>
+        <v>0.000796339678904709</v>
       </c>
       <c r="H16">
-        <v>9.165929062022599</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01316546836136467</v>
+        <v>0.03085376552354191</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2151180885161068</v>
+        <v>0.7499117137271298</v>
       </c>
       <c r="M16">
-        <v>1.060821784830395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.849361825416395</v>
+      </c>
+      <c r="O16">
+        <v>4.139607033762246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.077280545864312</v>
+        <v>8.094399139057828</v>
       </c>
       <c r="C17">
-        <v>0.8148566167787976</v>
+        <v>1.149546512055508</v>
       </c>
       <c r="D17">
-        <v>0.3195729309554878</v>
+        <v>0.2558044191251412</v>
       </c>
       <c r="E17">
-        <v>0.08148336195357686</v>
+        <v>0.03449037720914738</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.320180042976631</v>
+        <v>0.0008017268813440363</v>
       </c>
       <c r="H17">
-        <v>8.748729544310976</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01275819891710128</v>
+        <v>0.02977964195979865</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2047462003787857</v>
+        <v>0.7218207046912539</v>
       </c>
       <c r="M17">
-        <v>1.006786250336361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.853195618579207</v>
+      </c>
+      <c r="O17">
+        <v>4.007094314415156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.950451752956667</v>
+        <v>7.890242002753212</v>
       </c>
       <c r="C18">
-        <v>0.7878331600679189</v>
+        <v>1.117009572716427</v>
       </c>
       <c r="D18">
-        <v>0.3104942105685495</v>
+        <v>0.2517494635138462</v>
       </c>
       <c r="E18">
-        <v>0.07965212289726509</v>
+        <v>0.03444054693222576</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.200756749487567</v>
+        <v>0.0008048276411571307</v>
       </c>
       <c r="H18">
-        <v>8.512754668326778</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01253014301027733</v>
+        <v>0.02916830718815788</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1988889598707075</v>
+        <v>0.7059014860153212</v>
       </c>
       <c r="M18">
-        <v>0.9763094891025759</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.855837658370305</v>
+      </c>
+      <c r="O18">
+        <v>3.932359910009325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.907930058203078</v>
+        <v>7.821559700927025</v>
       </c>
       <c r="C19">
-        <v>0.778787131270775</v>
+        <v>1.106058637301487</v>
       </c>
       <c r="D19">
-        <v>0.3074456240940577</v>
+        <v>0.2503886360950816</v>
       </c>
       <c r="E19">
-        <v>0.07903717401025645</v>
+        <v>0.03442446685487432</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.160644460169152</v>
+        <v>0.0008058780833491535</v>
       </c>
       <c r="H19">
-        <v>8.433498220516583</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01245390949723468</v>
+        <v>0.02896236067804026</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1969232711124747</v>
+        <v>0.7005504832249869</v>
       </c>
       <c r="M19">
-        <v>0.9660876418517148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.856804471527809</v>
+      </c>
+      <c r="O19">
+        <v>3.907299265472687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.100960009364144</v>
+        <v>8.132399208635547</v>
       </c>
       <c r="C20">
-        <v>0.819909023848254</v>
+        <v>1.155600350561031</v>
       </c>
       <c r="D20">
-        <v>0.3212656094869857</v>
+        <v>0.2565607761883939</v>
       </c>
       <c r="E20">
-        <v>0.08182477294072399</v>
+        <v>0.03449998054292358</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.342440919369722</v>
+        <v>0.0008011532274113872</v>
       </c>
       <c r="H20">
-        <v>8.79271771882847</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01280089238944448</v>
+        <v>0.02989329722983314</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2058388085437457</v>
+        <v>0.7247859497856979</v>
       </c>
       <c r="M20">
-        <v>1.012474426234284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.852741610202699</v>
+      </c>
+      <c r="O20">
+        <v>4.021044179854499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.783118569122053</v>
+        <v>9.210913997526291</v>
       </c>
       <c r="C21">
-        <v>0.9664304326457227</v>
+        <v>1.327164401579296</v>
       </c>
       <c r="D21">
-        <v>0.3697140045767071</v>
+        <v>0.2782196061358775</v>
       </c>
       <c r="E21">
-        <v>0.09159511305398027</v>
+        <v>0.03481187145477982</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.979072234244882</v>
+        <v>0.0007852882729268278</v>
       </c>
       <c r="H21">
-        <v>10.05092774060097</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01404754016833554</v>
+        <v>0.03310412117898309</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2371831550746677</v>
+        <v>0.809209068638296</v>
       </c>
       <c r="M21">
-        <v>1.176070454955834</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1.844533769104231</v>
+      </c>
+      <c r="O21">
+        <v>4.421863761962044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.260032097652868</v>
+        <v>9.945692535037779</v>
       </c>
       <c r="C22">
-        <v>1.070016966031034</v>
+        <v>1.44382813959362</v>
       </c>
       <c r="D22">
-        <v>0.4032294970068051</v>
+        <v>0.2931647223331453</v>
       </c>
       <c r="E22">
-        <v>0.09835242504706798</v>
+        <v>0.03506313584478526</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.419065278078847</v>
+        <v>0.0007748873180015519</v>
       </c>
       <c r="H22">
-        <v>10.92071543733869</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01494010816709279</v>
+        <v>0.0352784314333654</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2589434404505866</v>
+        <v>0.8669897741075374</v>
       </c>
       <c r="M22">
-        <v>1.290129355596221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1.843772904192392</v>
+      </c>
+      <c r="O22">
+        <v>4.700006297736877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.002205289148094</v>
+        <v>9.550476475871847</v>
       </c>
       <c r="C23">
-        <v>1.013896489562228</v>
+        <v>1.381096035248788</v>
       </c>
       <c r="D23">
-        <v>0.3851465730528076</v>
+        <v>0.2851087080192514</v>
       </c>
       <c r="E23">
-        <v>0.09470673182590161</v>
+        <v>0.03492440601314684</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.18170114962362</v>
+        <v>0.0007804442492926746</v>
       </c>
       <c r="H23">
-        <v>10.45147012676603</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01445529782823263</v>
+        <v>0.0341100301977626</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2471953381188143</v>
+        <v>0.8358864708470719</v>
       </c>
       <c r="M23">
-        <v>1.228500008978465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1.843719181467179</v>
+      </c>
+      <c r="O23">
+        <v>4.549914734632864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.090246641200281</v>
+        <v>8.115211303483306</v>
       </c>
       <c r="C24">
-        <v>0.8176228740391878</v>
+        <v>1.152862211134845</v>
       </c>
       <c r="D24">
-        <v>0.3204998776600547</v>
+        <v>0.2562186051578692</v>
       </c>
       <c r="E24">
-        <v>0.08167032638193206</v>
+        <v>0.03449562427361386</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.33237075720541</v>
+        <v>0.0008014125645778858</v>
       </c>
       <c r="H24">
-        <v>8.77281870383635</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01278157192951035</v>
+        <v>0.0298418945787482</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2053445142767387</v>
+        <v>0.723444648994473</v>
       </c>
       <c r="M24">
-        <v>1.009900985042698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.852945510709162</v>
+      </c>
+      <c r="O24">
+        <v>4.014732963411632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.204236884534225</v>
+        <v>6.668273195201834</v>
       </c>
       <c r="C25">
-        <v>0.6300774305975665</v>
+        <v>0.9217299376236952</v>
       </c>
       <c r="D25">
-        <v>0.2566392760064531</v>
+        <v>0.227818339544072</v>
       </c>
       <c r="E25">
-        <v>0.06878632622465375</v>
+        <v>0.03421194550878326</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.491161923921339</v>
+        <v>0.0008241334256421088</v>
       </c>
       <c r="H25">
-        <v>7.110990148583738</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01120699064733888</v>
+        <v>0.02547884440835446</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1642532419641007</v>
+        <v>0.6110738434580441</v>
       </c>
       <c r="M25">
-        <v>0.7966430241194189</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.879338650204815</v>
+      </c>
+      <c r="O25">
+        <v>3.493052132898313</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.665460918368524</v>
+        <v>3.406634962325029</v>
       </c>
       <c r="C2">
-        <v>0.760529535805631</v>
+        <v>0.4887374648838545</v>
       </c>
       <c r="D2">
-        <v>0.2087150885134434</v>
+        <v>0.2547969819452618</v>
       </c>
       <c r="E2">
-        <v>0.03413456386610481</v>
+        <v>0.05643966992319527</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000841171379965826</v>
+        <v>0.3793131526290097</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.31931214111831</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2663315071958188</v>
       </c>
       <c r="J2">
-        <v>0.0223980112723261</v>
+        <v>0.027841965807756</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5339589500926536</v>
+        <v>0.415839731662885</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.909963729645028</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.144295259575202</v>
+        <v>1.420861422393443</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.015125414576289</v>
+        <v>2.96509753468888</v>
       </c>
       <c r="C3">
-        <v>0.6553157529026521</v>
+        <v>0.4369344675705804</v>
       </c>
       <c r="D3">
-        <v>0.1966695069478277</v>
+        <v>0.2409837796452052</v>
       </c>
       <c r="E3">
-        <v>0.0341552396586513</v>
+        <v>0.05693908634936129</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000852998905248685</v>
+        <v>0.3700016698290796</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3224587708956932</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2818646642105165</v>
       </c>
       <c r="J3">
-        <v>0.02036263705901398</v>
+        <v>0.02820186950773085</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4843919808055972</v>
+        <v>0.3716012925743399</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.936535583714289</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.92504393305083</v>
+        <v>1.407260913853662</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.627566295509837</v>
+        <v>2.694211755864785</v>
       </c>
       <c r="C4">
-        <v>0.5922716895549343</v>
+        <v>0.4051227888757012</v>
       </c>
       <c r="D4">
-        <v>0.1896549905049341</v>
+        <v>0.2328644729496006</v>
       </c>
       <c r="E4">
-        <v>0.03420153463545006</v>
+        <v>0.05734093618563563</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008604240870084687</v>
+        <v>0.3655431451363782</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3251502795200594</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2923962842047789</v>
       </c>
       <c r="J4">
-        <v>0.01913073139451527</v>
+        <v>0.02844099649733067</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4550620930087632</v>
+        <v>0.3446871521157391</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.955399282438265</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.797492776662196</v>
+        <v>1.403157189559721</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.472234089315407</v>
+        <v>2.583846055350079</v>
       </c>
       <c r="C5">
-        <v>0.5669158927338174</v>
+        <v>0.3921548444240841</v>
       </c>
       <c r="D5">
-        <v>0.1868841920173026</v>
+        <v>0.2296425909695614</v>
       </c>
       <c r="E5">
-        <v>0.03422852458874104</v>
+        <v>0.05752796507349522</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000863494141288016</v>
+        <v>0.3640263411392581</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3264307027853448</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.296928316842088</v>
       </c>
       <c r="J5">
-        <v>0.01863214637072552</v>
+        <v>0.02854297684717633</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4433581714314982</v>
+        <v>0.3337763719710551</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.963684906349258</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.747112854645337</v>
+        <v>1.402502546555439</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.446588769396953</v>
+        <v>2.565520353776378</v>
       </c>
       <c r="C6">
-        <v>0.5627242862223056</v>
+        <v>0.3900011677197597</v>
       </c>
       <c r="D6">
-        <v>0.1864291727163732</v>
+        <v>0.2291127224719247</v>
       </c>
       <c r="E6">
-        <v>0.03423348808576865</v>
+        <v>0.05756040765439785</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008640066816031218</v>
+        <v>0.3637921353238482</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3266541972934149</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2976950969294041</v>
       </c>
       <c r="J6">
-        <v>0.01854953498732215</v>
+        <v>0.02856018366631474</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4414289336742172</v>
+        <v>0.3319679295911868</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.965095723775832</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.738838935632771</v>
+        <v>1.402453883055415</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.625461338822163</v>
+        <v>2.692723276318645</v>
       </c>
       <c r="C7">
-        <v>0.5919284456598177</v>
+        <v>0.4049479207646129</v>
       </c>
       <c r="D7">
-        <v>0.1896172778641869</v>
+        <v>0.2328206755192639</v>
       </c>
       <c r="E7">
-        <v>0.03420186614049481</v>
+        <v>0.05734336515727989</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008604653076474403</v>
+        <v>0.3655214951244616</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3251668137857635</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2924564442381659</v>
       </c>
       <c r="J7">
-        <v>0.01912399473951787</v>
+        <v>0.02844235351730795</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4549032814200871</v>
+        <v>0.3445397819940013</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.955508654567367</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.79680708814405</v>
+        <v>1.403144305045686</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.438561845764013</v>
+        <v>3.254326585100557</v>
       </c>
       <c r="C8">
-        <v>0.7238925380162868</v>
+        <v>0.4708746228968437</v>
       </c>
       <c r="D8">
-        <v>0.2044773342328625</v>
+        <v>0.2499564235987464</v>
       </c>
       <c r="E8">
-        <v>0.03413451274260204</v>
+        <v>0.05659169687701571</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008452177264608451</v>
+        <v>0.3758311460968713</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3202349281564238</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2714750244435677</v>
       </c>
       <c r="J8">
-        <v>0.02169184185624928</v>
+        <v>0.02796227691790953</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5166202779910236</v>
+        <v>0.4005313177638783</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.918569829012014</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>3.067115726575508</v>
+        <v>1.41525944892804</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.144502542404894</v>
+        <v>4.359025449274384</v>
       </c>
       <c r="C9">
-        <v>0.9979570566724192</v>
+        <v>0.6002901396984157</v>
       </c>
       <c r="D9">
-        <v>0.2370703814322326</v>
+        <v>0.2866360281657165</v>
       </c>
       <c r="E9">
-        <v>0.03428574896624337</v>
+        <v>0.0559048064352865</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008164450317527442</v>
+        <v>0.4068200081789684</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3169402122626934</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2386778693855938</v>
       </c>
       <c r="J9">
-        <v>0.02692364234418321</v>
+        <v>0.02716620533994352</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6479311258967755</v>
+        <v>0.5125726414645868</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.868534948331686</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.662549289597081</v>
+        <v>1.475112619140333</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.495474129501645</v>
+        <v>5.175269542669469</v>
       </c>
       <c r="C10">
-        <v>1.213408458522565</v>
+        <v>0.6957164125579425</v>
       </c>
       <c r="D10">
-        <v>0.2638117673105</v>
+        <v>0.3157626810688328</v>
       </c>
       <c r="E10">
-        <v>0.03459671801772046</v>
+        <v>0.05592655364302246</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007957250969233284</v>
+        <v>0.4373116315253753</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3189244452723301</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.220343736047564</v>
       </c>
       <c r="J10">
-        <v>0.0309772636930461</v>
+        <v>0.02667203289030518</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.753150847983278</v>
+        <v>0.5966663796682212</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.848985773887208</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>4.154937876715877</v>
+        <v>1.544629827040836</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.139384114340714</v>
+        <v>5.548225530819821</v>
       </c>
       <c r="C11">
-        <v>1.315799109824411</v>
+        <v>0.739267796068674</v>
       </c>
       <c r="D11">
-        <v>0.2767724061578605</v>
+        <v>0.3295581892283934</v>
       </c>
       <c r="E11">
-        <v>0.03478898764793925</v>
+        <v>0.0560617644377519</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007863172983761474</v>
+        <v>0.4531362151963663</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3209070616269969</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.213414212175131</v>
       </c>
       <c r="J11">
-        <v>0.03289195625592356</v>
+        <v>0.0264674260748734</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8035950277116513</v>
+        <v>0.635407520440296</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.844809520330884</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>4.39499882101299</v>
+        <v>1.582645217718436</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.388263847342955</v>
+        <v>5.689745194126999</v>
       </c>
       <c r="C12">
-        <v>1.355336492176377</v>
+        <v>0.755785610999169</v>
       </c>
       <c r="D12">
-        <v>0.281813844096007</v>
+        <v>0.3348670635256212</v>
       </c>
       <c r="E12">
-        <v>0.03486985459017866</v>
+        <v>0.05613197066256781</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007827499910081607</v>
+        <v>0.4594343485399008</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3218242608200939</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2110074910685498</v>
       </c>
       <c r="J12">
-        <v>0.03362974963772913</v>
+        <v>0.02639289782268506</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8231369443265635</v>
+        <v>0.6501564987466253</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.844007272616111</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4.488637254045443</v>
+        <v>1.598035730358987</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.334423975449795</v>
+        <v>5.659252641597845</v>
       </c>
       <c r="C13">
-        <v>1.346785004111837</v>
+        <v>0.7522269615580512</v>
       </c>
       <c r="D13">
-        <v>0.2807218002082834</v>
+        <v>0.3337198242809762</v>
       </c>
       <c r="E13">
-        <v>0.03485206658486817</v>
+        <v>0.05611598885952773</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007835186183795075</v>
+        <v>0.4580639226869039</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3216191377370876</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.211515913693983</v>
       </c>
       <c r="J13">
-        <v>0.03347023945819316</v>
+        <v>0.02640881672522255</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8189074471914637</v>
+        <v>0.646976404844537</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.844143581126147</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>4.46834144659914</v>
+        <v>1.594675592252941</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.159753218657443</v>
+        <v>5.559862320198022</v>
       </c>
       <c r="C14">
-        <v>1.319035696660535</v>
+        <v>0.740626175334512</v>
       </c>
       <c r="D14">
-        <v>0.2771843705237131</v>
+        <v>0.3299932156948699</v>
       </c>
       <c r="E14">
-        <v>0.03479547431715346</v>
+        <v>0.05606715358423742</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007860239566421789</v>
+        <v>0.4536480912963441</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3209791180735948</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2132117673736111</v>
       </c>
       <c r="J14">
-        <v>0.03295238304356474</v>
+        <v>0.02646123514229792</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.805193498330766</v>
+        <v>0.6366193019043607</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.844727255850202</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>4.402645050755467</v>
+        <v>1.583891010878489</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.053446421494186</v>
+        <v>5.499022208836095</v>
       </c>
       <c r="C15">
-        <v>1.302142392740564</v>
+        <v>0.7335238968032343</v>
       </c>
       <c r="D15">
-        <v>0.27503560691693</v>
+        <v>0.32772180196676</v>
       </c>
       <c r="E15">
-        <v>0.03476188402760272</v>
+        <v>0.05603974591112504</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007875576857796472</v>
+        <v>0.450983844880767</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3206091053018554</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2142792779389886</v>
       </c>
       <c r="J15">
-        <v>0.03263692534571305</v>
+        <v>0.02649372884829404</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7968528454837269</v>
+        <v>0.6302857731835303</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.845189569763463</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4.362773817434146</v>
+        <v>1.577417054784007</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.454050799631545</v>
+        <v>5.150933486495774</v>
       </c>
       <c r="C16">
-        <v>1.206816064935879</v>
+        <v>0.6928735343622634</v>
       </c>
       <c r="D16">
-        <v>0.2629823287592501</v>
+        <v>0.3148726247140701</v>
       </c>
       <c r="E16">
-        <v>0.0345852364743866</v>
+        <v>0.05592032165296779</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000796339678904709</v>
+        <v>0.4363188482355298</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3188175411575713</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2208261988413298</v>
       </c>
       <c r="J16">
-        <v>0.03085376552354191</v>
+        <v>0.02668581480947374</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7499117137271298</v>
+        <v>0.5941450638020314</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.849361825416395</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>4.139607033762246</v>
+        <v>1.542280402387604</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.094399139057828</v>
+        <v>4.937849462585916</v>
       </c>
       <c r="C17">
-        <v>1.149546512055508</v>
+        <v>0.6679758642351032</v>
       </c>
       <c r="D17">
-        <v>0.2558044191251412</v>
+        <v>0.3071342032090314</v>
       </c>
       <c r="E17">
-        <v>0.03449037720914738</v>
+        <v>0.05587983539526498</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008017268813440363</v>
+        <v>0.4278398136671342</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3180027461374664</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2252138323276576</v>
       </c>
       <c r="J17">
-        <v>0.02977964195979865</v>
+        <v>0.02680885862320181</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7218207046912539</v>
+        <v>0.5721044163957458</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.853195618579207</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>4.007094314415156</v>
+        <v>1.522414475304885</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.890242002753212</v>
+        <v>4.815440330257388</v>
       </c>
       <c r="C18">
-        <v>1.117009572716427</v>
+        <v>0.6536683440986053</v>
       </c>
       <c r="D18">
-        <v>0.2517494635138462</v>
+        <v>0.3027342207278565</v>
       </c>
       <c r="E18">
-        <v>0.03444054693222576</v>
+        <v>0.05586828156901547</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008048276411571307</v>
+        <v>0.4231452124186319</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3176350377157178</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2278693459036703</v>
       </c>
       <c r="J18">
-        <v>0.02916830718815788</v>
+        <v>0.02688152790601706</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7059014860153212</v>
+        <v>0.5594724558046238</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.855837658370305</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.932359910009325</v>
+        <v>1.511584879752633</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.821559700927025</v>
+        <v>4.774019114396651</v>
       </c>
       <c r="C19">
-        <v>1.106058637301487</v>
+        <v>0.6488261295507982</v>
       </c>
       <c r="D19">
-        <v>0.2503886360950816</v>
+        <v>0.3012530272017813</v>
       </c>
       <c r="E19">
-        <v>0.03442446685487432</v>
+        <v>0.05586635583763844</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008058780833491535</v>
+        <v>0.4215862886851482</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3175275486486413</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2287906802941926</v>
       </c>
       <c r="J19">
-        <v>0.02896236067804026</v>
+        <v>0.02690645701368588</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7005504832249869</v>
+        <v>0.5552030092943312</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.856804471527809</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.907299265472687</v>
+        <v>1.50801843849149</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.132399208635547</v>
+        <v>4.960516604755071</v>
       </c>
       <c r="C20">
-        <v>1.155600350561031</v>
+        <v>0.6706248838972613</v>
       </c>
       <c r="D20">
-        <v>0.2565607761883939</v>
+        <v>0.3079526533779386</v>
       </c>
       <c r="E20">
-        <v>0.03449998054292358</v>
+        <v>0.05588292400675066</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008011532274113872</v>
+        <v>0.4287233788476783</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3180789575312275</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2247330123687696</v>
       </c>
       <c r="J20">
-        <v>0.02989329722983314</v>
+        <v>0.02679556365538183</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7247859497856979</v>
+        <v>0.5744459389441658</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.852741610202699</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>4.021044179854499</v>
+        <v>1.524466943224695</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.210913997526291</v>
+        <v>5.589047369380182</v>
       </c>
       <c r="C21">
-        <v>1.327164401579296</v>
+        <v>0.7440328596438519</v>
       </c>
       <c r="D21">
-        <v>0.2782196061358775</v>
+        <v>0.3310854562419507</v>
       </c>
       <c r="E21">
-        <v>0.03481187145477982</v>
+        <v>0.05608097372540932</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007852882729268278</v>
+        <v>0.4549366248636204</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3211624978552265</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2127076350055326</v>
       </c>
       <c r="J21">
-        <v>0.03310412117898309</v>
+        <v>0.02644575806797889</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.809209068638296</v>
+        <v>0.6396592304730007</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.844533769104231</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>4.421863761962044</v>
+        <v>1.587031070405715</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.945692535037779</v>
+        <v>6.001542827451715</v>
       </c>
       <c r="C22">
-        <v>1.44382813959362</v>
+        <v>0.792162795513832</v>
       </c>
       <c r="D22">
-        <v>0.2931647223331453</v>
+        <v>0.3467017274003155</v>
       </c>
       <c r="E22">
-        <v>0.03506313584478526</v>
+        <v>0.056321691370945</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007748873180015519</v>
+        <v>0.4738632218197267</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3241535949896814</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2061226564437533</v>
       </c>
       <c r="J22">
-        <v>0.0352784314333654</v>
+        <v>0.02623437083673608</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8669897741075374</v>
+        <v>0.6827422107056975</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.843772904192392</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4.700006297736877</v>
+        <v>1.633758732567685</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.550476475871847</v>
+        <v>5.781210666697177</v>
       </c>
       <c r="C23">
-        <v>1.381096035248788</v>
+        <v>0.7664589467499923</v>
       </c>
       <c r="D23">
-        <v>0.2851087080192514</v>
+        <v>0.3383192755819806</v>
       </c>
       <c r="E23">
-        <v>0.03492440601314684</v>
+        <v>0.0561826906595968</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007804442492926746</v>
+        <v>0.4635888597254194</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3224640069221323</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2095155268813009</v>
       </c>
       <c r="J23">
-        <v>0.0341100301977626</v>
+        <v>0.02634559872601905</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8358864708470719</v>
+        <v>0.6597026934085761</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.843719181467179</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4.549914734632864</v>
+        <v>1.608258556882561</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.115211303483306</v>
+        <v>4.950268495624982</v>
       </c>
       <c r="C24">
-        <v>1.152862211134845</v>
+        <v>0.669427242328112</v>
       </c>
       <c r="D24">
-        <v>0.2562186051578692</v>
+        <v>0.3075824800970111</v>
       </c>
       <c r="E24">
-        <v>0.03449562427361386</v>
+        <v>0.05588149120691099</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008014125645778858</v>
+        <v>0.4283233598813752</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3180441894461978</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2249499778746049</v>
       </c>
       <c r="J24">
-        <v>0.0298418945787482</v>
+        <v>0.02680156830314928</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.723444648994473</v>
+        <v>0.573387214204331</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.852945510709162</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>4.014732963411632</v>
+        <v>1.523537185470587</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.668273195201834</v>
+        <v>4.059559997847543</v>
       </c>
       <c r="C25">
-        <v>0.9217299376236952</v>
+        <v>0.5652396371299346</v>
       </c>
       <c r="D25">
-        <v>0.227818339544072</v>
+        <v>0.2763537866540702</v>
       </c>
       <c r="E25">
-        <v>0.03421194550878326</v>
+        <v>0.05600172512538037</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008241334256421088</v>
+        <v>0.3971685985124935</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3170974926723886</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2465898346864144</v>
       </c>
       <c r="J25">
-        <v>0.02547884440835446</v>
+        <v>0.02736579737037914</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6110738434580441</v>
+        <v>0.4819818696355611</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.879338650204815</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>3.493052132898313</v>
+        <v>1.4547052031742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.406634962325029</v>
+        <v>1.59454423119314</v>
       </c>
       <c r="C2">
-        <v>0.4887374648838545</v>
+        <v>0.2002520751363761</v>
       </c>
       <c r="D2">
-        <v>0.2547969819452618</v>
+        <v>0.4962892435936936</v>
       </c>
       <c r="E2">
-        <v>0.05643966992319527</v>
+        <v>0.1607066697175679</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3793131526290097</v>
+        <v>0.8013244342879347</v>
       </c>
       <c r="H2">
-        <v>0.31931214111831</v>
+        <v>0.8868644463710922</v>
       </c>
       <c r="I2">
-        <v>0.2663315071958188</v>
+        <v>0.8267295841770377</v>
       </c>
       <c r="J2">
-        <v>0.027841965807756</v>
+        <v>0.06435962793137051</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.415839731662885</v>
+        <v>0.4601634685019036</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.420861422393443</v>
+        <v>3.394152705191658</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.96509753468888</v>
+        <v>1.456537482687565</v>
       </c>
       <c r="C3">
-        <v>0.4369344675705804</v>
+        <v>0.1829435412272744</v>
       </c>
       <c r="D3">
-        <v>0.2409837796452052</v>
+        <v>0.4960566728477431</v>
       </c>
       <c r="E3">
-        <v>0.05693908634936129</v>
+        <v>0.1619494273977473</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3700016698290796</v>
+        <v>0.8086428600207043</v>
       </c>
       <c r="H3">
-        <v>0.3224587708956932</v>
+        <v>0.8952821707344256</v>
       </c>
       <c r="I3">
-        <v>0.2818646642105165</v>
+        <v>0.8397790004629151</v>
       </c>
       <c r="J3">
-        <v>0.02820186950773085</v>
+        <v>0.0646551489122924</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3716012925743399</v>
+        <v>0.4493776750452128</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.407260913853662</v>
+        <v>3.426965657155577</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.694211755864785</v>
+        <v>1.37173391705204</v>
       </c>
       <c r="C4">
-        <v>0.4051227888757012</v>
+        <v>0.1722703648450761</v>
       </c>
       <c r="D4">
-        <v>0.2328644729496006</v>
+        <v>0.4961431168577661</v>
       </c>
       <c r="E4">
-        <v>0.05734093618563563</v>
+        <v>0.1627783241024012</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3655431451363782</v>
+        <v>0.8137551243897789</v>
       </c>
       <c r="H4">
-        <v>0.3251502795200594</v>
+        <v>0.9009075401268944</v>
       </c>
       <c r="I4">
-        <v>0.2923962842047789</v>
+        <v>0.8483320162841572</v>
       </c>
       <c r="J4">
-        <v>0.02844099649733067</v>
+        <v>0.06485031052647372</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3446871521157391</v>
+        <v>0.4429033895283254</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.403157189559721</v>
+        <v>3.449369706683456</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.583846055350079</v>
+        <v>1.337161429472189</v>
       </c>
       <c r="C5">
-        <v>0.3921548444240841</v>
+        <v>0.167909793390379</v>
       </c>
       <c r="D5">
-        <v>0.2296425909695614</v>
+        <v>0.4962360746216348</v>
       </c>
       <c r="E5">
-        <v>0.05752796507349522</v>
+        <v>0.1631326789052387</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3640263411392581</v>
+        <v>0.8159937855378132</v>
       </c>
       <c r="H5">
-        <v>0.3264307027853448</v>
+        <v>0.9033148102327146</v>
       </c>
       <c r="I5">
-        <v>0.296928316842088</v>
+        <v>0.8519532596537545</v>
       </c>
       <c r="J5">
-        <v>0.02854297684717633</v>
+        <v>0.06493329817005478</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3337763719710551</v>
+        <v>0.4403025720704932</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.402502546555439</v>
+        <v>3.459066581365775</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.565520353776378</v>
+        <v>1.331419900795822</v>
       </c>
       <c r="C6">
-        <v>0.3900011677197597</v>
+        <v>0.167185058869336</v>
       </c>
       <c r="D6">
-        <v>0.2291127224719247</v>
+        <v>0.4962549995388343</v>
       </c>
       <c r="E6">
-        <v>0.05756040765439785</v>
+        <v>0.163192520699587</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3637921353238482</v>
+        <v>0.8163748914096942</v>
       </c>
       <c r="H6">
-        <v>0.3266541972934149</v>
+        <v>0.9037214746680391</v>
       </c>
       <c r="I6">
-        <v>0.2976950969294041</v>
+        <v>0.8525627639181987</v>
       </c>
       <c r="J6">
-        <v>0.02856018366631474</v>
+        <v>0.06494728733896959</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3319679295911868</v>
+        <v>0.4398729804483281</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.402453883055415</v>
+        <v>3.460710975103282</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.692723276318645</v>
+        <v>1.37126771519678</v>
       </c>
       <c r="C7">
-        <v>0.4049479207646129</v>
+        <v>0.1722116014380788</v>
       </c>
       <c r="D7">
-        <v>0.2328206755192639</v>
+        <v>0.4961441366531147</v>
       </c>
       <c r="E7">
-        <v>0.05734336515727989</v>
+        <v>0.1627830359303424</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3655214951244616</v>
+        <v>0.813784686943066</v>
       </c>
       <c r="H7">
-        <v>0.3251668137857635</v>
+        <v>0.9009395402352354</v>
       </c>
       <c r="I7">
-        <v>0.2924564442381659</v>
+        <v>0.8483803038741176</v>
       </c>
       <c r="J7">
-        <v>0.02844235351730795</v>
+        <v>0.06485141571357822</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3445397819940013</v>
+        <v>0.4428681618237249</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.403144305045686</v>
+        <v>3.449498186781526</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.254326585100557</v>
+        <v>1.546974813536792</v>
       </c>
       <c r="C8">
-        <v>0.4708746228968437</v>
+        <v>0.1942937553513104</v>
       </c>
       <c r="D8">
-        <v>0.2499564235987464</v>
+        <v>0.496161524037035</v>
       </c>
       <c r="E8">
-        <v>0.05659169687701571</v>
+        <v>0.1611215180402024</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3758311460968713</v>
+        <v>0.8037192848971486</v>
       </c>
       <c r="H8">
-        <v>0.3202349281564238</v>
+        <v>0.8896720623748706</v>
       </c>
       <c r="I8">
-        <v>0.2714750244435677</v>
+        <v>0.8311167439082361</v>
       </c>
       <c r="J8">
-        <v>0.02796227691790953</v>
+        <v>0.06445868397692323</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4005313177638783</v>
+        <v>0.4564138950918846</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.41525944892804</v>
+        <v>3.404997955104321</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.359025449274384</v>
+        <v>1.89091444080691</v>
       </c>
       <c r="C9">
-        <v>0.6002901396984157</v>
+        <v>0.2372226077008861</v>
       </c>
       <c r="D9">
-        <v>0.2866360281657165</v>
+        <v>0.4980113562771891</v>
       </c>
       <c r="E9">
-        <v>0.0559048064352865</v>
+        <v>0.1583849395572461</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4068200081789684</v>
+        <v>0.7889002131679774</v>
       </c>
       <c r="H9">
-        <v>0.3169402122626934</v>
+        <v>0.8712012595851064</v>
       </c>
       <c r="I9">
-        <v>0.2386778693855938</v>
+        <v>0.8015577178457498</v>
       </c>
       <c r="J9">
-        <v>0.02716620533994352</v>
+        <v>0.06379688086221513</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5125726414645868</v>
+        <v>0.4841447559719825</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.475112619140333</v>
+        <v>3.335660337338084</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.175269542669469</v>
+        <v>2.143131559468145</v>
       </c>
       <c r="C10">
-        <v>0.6957164125579425</v>
+        <v>0.2685215305963595</v>
       </c>
       <c r="D10">
-        <v>0.3157626810688328</v>
+        <v>0.5004738819357328</v>
       </c>
       <c r="E10">
-        <v>0.05592655364302246</v>
+        <v>0.1566913919459161</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4373116315253753</v>
+        <v>0.7810256979376931</v>
       </c>
       <c r="H10">
-        <v>0.3189244452723301</v>
+        <v>0.8598402759256913</v>
       </c>
       <c r="I10">
-        <v>0.220343736047564</v>
+        <v>0.7824654851299861</v>
       </c>
       <c r="J10">
-        <v>0.02667203289030518</v>
+        <v>0.06337610262314897</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5966663796682212</v>
+        <v>0.5052216395487079</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.544629827040836</v>
+        <v>3.295677097891087</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.548225530819821</v>
+        <v>2.257749858687419</v>
       </c>
       <c r="C11">
-        <v>0.739267796068674</v>
+        <v>0.2827054323715572</v>
       </c>
       <c r="D11">
-        <v>0.3295581892283934</v>
+        <v>0.5018330762063385</v>
       </c>
       <c r="E11">
-        <v>0.0560617644377519</v>
+        <v>0.1559895816481234</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4531362151963663</v>
+        <v>0.7781007153527071</v>
       </c>
       <c r="H11">
-        <v>0.3209070616269969</v>
+        <v>0.8551516306786766</v>
       </c>
       <c r="I11">
-        <v>0.213414212175131</v>
+        <v>0.7743512763347056</v>
       </c>
       <c r="J11">
-        <v>0.0264674260748734</v>
+        <v>0.06319876545307679</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.635407520440296</v>
+        <v>0.5149610106036135</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.582645217718436</v>
+        <v>3.279873957306961</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.689745194126999</v>
+        <v>2.301133980230418</v>
       </c>
       <c r="C12">
-        <v>0.755785610999169</v>
+        <v>0.2880684513825713</v>
       </c>
       <c r="D12">
-        <v>0.3348670635256212</v>
+        <v>0.5023820604756679</v>
       </c>
       <c r="E12">
-        <v>0.05613197066256781</v>
+        <v>0.1557336716967672</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4594343485399008</v>
+        <v>0.7770878432330619</v>
       </c>
       <c r="H12">
-        <v>0.3218242608200939</v>
+        <v>0.8534451218849455</v>
       </c>
       <c r="I12">
-        <v>0.2110074910685498</v>
+        <v>0.771360872013986</v>
       </c>
       <c r="J12">
-        <v>0.02639289782268506</v>
+        <v>0.063133626843209</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6501564987466253</v>
+        <v>0.5186706320100853</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.598035730358987</v>
+        <v>3.274233271398714</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.659252641597845</v>
+        <v>2.291791334505774</v>
       </c>
       <c r="C13">
-        <v>0.7522269615580512</v>
+        <v>0.2869137955317456</v>
       </c>
       <c r="D13">
-        <v>0.3337198242809762</v>
+        <v>0.5022623032136693</v>
       </c>
       <c r="E13">
-        <v>0.05611598885952773</v>
+        <v>0.1557883485954701</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4580639226869039</v>
+        <v>0.7773017650631147</v>
       </c>
       <c r="H13">
-        <v>0.3216191377370876</v>
+        <v>0.8538095808181367</v>
       </c>
       <c r="I13">
-        <v>0.211515913693983</v>
+        <v>0.7720012473940585</v>
       </c>
       <c r="J13">
-        <v>0.02640881672522255</v>
+        <v>0.06314756612915495</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.646976404844537</v>
+        <v>0.5178707447411313</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.594675592252941</v>
+        <v>3.275432801939019</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.559862320198022</v>
+        <v>2.261319498816704</v>
       </c>
       <c r="C14">
-        <v>0.740626175334512</v>
+        <v>0.2831468157357335</v>
       </c>
       <c r="D14">
-        <v>0.3299932156948699</v>
+        <v>0.501877554759119</v>
       </c>
       <c r="E14">
-        <v>0.05606715358423742</v>
+        <v>0.1559683304417092</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4536480912963441</v>
+        <v>0.7780154852643335</v>
       </c>
       <c r="H14">
-        <v>0.3209791180735948</v>
+        <v>0.8550098525822563</v>
       </c>
       <c r="I14">
-        <v>0.2132117673736111</v>
+        <v>0.7741036041796079</v>
       </c>
       <c r="J14">
-        <v>0.02646123514229792</v>
+        <v>0.06319336612583193</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6366193019043607</v>
+        <v>0.5152657731888581</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.583891010878489</v>
+        <v>3.279403004604916</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.499022208836095</v>
+        <v>2.242652024551603</v>
       </c>
       <c r="C15">
-        <v>0.7335238968032343</v>
+        <v>0.2808383649970949</v>
       </c>
       <c r="D15">
-        <v>0.32772180196676</v>
+        <v>0.5016463480720574</v>
       </c>
       <c r="E15">
-        <v>0.05603974591112504</v>
+        <v>0.156079856937744</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.450983844880767</v>
+        <v>0.7784650069597632</v>
       </c>
       <c r="H15">
-        <v>0.3206091053018554</v>
+        <v>0.8557540375788335</v>
       </c>
       <c r="I15">
-        <v>0.2142792779389886</v>
+        <v>0.7754020774803152</v>
       </c>
       <c r="J15">
-        <v>0.02649372884829404</v>
+        <v>0.06322168210671819</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6302857731835303</v>
+        <v>0.513672950114028</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.577417054784007</v>
+        <v>3.281879635584204</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.150933486495774</v>
+        <v>2.135638417764881</v>
       </c>
       <c r="C16">
-        <v>0.6928735343622634</v>
+        <v>0.2675934614484845</v>
       </c>
       <c r="D16">
-        <v>0.3148726247140701</v>
+        <v>0.5003898575943992</v>
       </c>
       <c r="E16">
-        <v>0.05592032165296779</v>
+        <v>0.1567386360356515</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4363188482355298</v>
+        <v>0.7812300982386375</v>
       </c>
       <c r="H16">
-        <v>0.3188175411575713</v>
+        <v>0.8601563412505584</v>
       </c>
       <c r="I16">
-        <v>0.2208261988413298</v>
+        <v>0.7830072710943909</v>
       </c>
       <c r="J16">
-        <v>0.02668581480947374</v>
+        <v>0.06338797450696632</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5941450638020314</v>
+        <v>0.5045881748422971</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.542280402387604</v>
+        <v>3.296757922528116</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.937849462585916</v>
+        <v>2.069957344060583</v>
       </c>
       <c r="C17">
-        <v>0.6679758642351032</v>
+        <v>0.259454039408098</v>
       </c>
       <c r="D17">
-        <v>0.3071342032090314</v>
+        <v>0.4996801941410638</v>
       </c>
       <c r="E17">
-        <v>0.05587983539526498</v>
+        <v>0.1571603345749839</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4278398136671342</v>
+        <v>0.7830948917588501</v>
       </c>
       <c r="H17">
-        <v>0.3180027461374664</v>
+        <v>0.8629798468234213</v>
       </c>
       <c r="I17">
-        <v>0.2252138323276576</v>
+        <v>0.7878191640600818</v>
       </c>
       <c r="J17">
-        <v>0.02680885862320181</v>
+        <v>0.06349358843460884</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5721044163957458</v>
+        <v>0.4990535653969914</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.522414475304885</v>
+        <v>3.306496663305097</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.815440330257388</v>
+        <v>2.032168512044962</v>
       </c>
       <c r="C18">
-        <v>0.6536683440986053</v>
+        <v>0.2547673833179545</v>
       </c>
       <c r="D18">
-        <v>0.3027342207278565</v>
+        <v>0.4992945129920656</v>
       </c>
       <c r="E18">
-        <v>0.05586828156901547</v>
+        <v>0.1574093415077531</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4231452124186319</v>
+        <v>0.7842293128688453</v>
       </c>
       <c r="H18">
-        <v>0.3176350377157178</v>
+        <v>0.864648986069497</v>
       </c>
       <c r="I18">
-        <v>0.2278693459036703</v>
+        <v>0.7906405674235657</v>
       </c>
       <c r="J18">
-        <v>0.02688152790601706</v>
+        <v>0.06355566030163828</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5594724558046238</v>
+        <v>0.4958844681513312</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.511584879752633</v>
+        <v>3.312322622369976</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.774019114396651</v>
+        <v>2.019372084315876</v>
       </c>
       <c r="C19">
-        <v>0.6488261295507982</v>
+        <v>0.2531797004918133</v>
       </c>
       <c r="D19">
-        <v>0.3012530272017813</v>
+        <v>0.4991677944964863</v>
       </c>
       <c r="E19">
-        <v>0.05586635583763844</v>
+        <v>0.157494760390632</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4215862886851482</v>
+        <v>0.7846240218720482</v>
       </c>
       <c r="H19">
-        <v>0.3175275486486413</v>
+        <v>0.8652218789184474</v>
       </c>
       <c r="I19">
-        <v>0.2287906802941926</v>
+        <v>0.7916050691036887</v>
       </c>
       <c r="J19">
-        <v>0.02690645701368588</v>
+        <v>0.06357690470989574</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5552030092943312</v>
+        <v>0.4948139233220274</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.50801843849149</v>
+        <v>3.314333730628249</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.960516604755071</v>
+        <v>2.076950344642455</v>
       </c>
       <c r="C20">
-        <v>0.6706248838972613</v>
+        <v>0.2603210225246926</v>
       </c>
       <c r="D20">
-        <v>0.3079526533779386</v>
+        <v>0.4997534110828781</v>
       </c>
       <c r="E20">
-        <v>0.05588292400675066</v>
+        <v>0.1571147758573748</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4287233788476783</v>
+        <v>0.7828899791233823</v>
       </c>
       <c r="H20">
-        <v>0.3180789575312275</v>
+        <v>0.8626746085058983</v>
       </c>
       <c r="I20">
-        <v>0.2247330123687696</v>
+        <v>0.7873013677768768</v>
       </c>
       <c r="J20">
-        <v>0.02679556365538183</v>
+        <v>0.06348220853050179</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5744459389441658</v>
+        <v>0.4996412594996684</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.524466943224695</v>
+        <v>3.305436719199804</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.589047369380182</v>
+        <v>2.270270360992868</v>
       </c>
       <c r="C21">
-        <v>0.7440328596438519</v>
+        <v>0.2842534919327875</v>
       </c>
       <c r="D21">
-        <v>0.3310854562419507</v>
+        <v>0.5019896347915562</v>
       </c>
       <c r="E21">
-        <v>0.05608097372540932</v>
+        <v>0.1559151981794038</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4549366248636204</v>
+        <v>0.7778032746883383</v>
       </c>
       <c r="H21">
-        <v>0.3211624978552265</v>
+        <v>0.854655431393482</v>
       </c>
       <c r="I21">
-        <v>0.2127076350055326</v>
+        <v>0.773483856884372</v>
       </c>
       <c r="J21">
-        <v>0.02644575806797889</v>
+        <v>0.06317985893912592</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6396592304730007</v>
+        <v>0.5160303339629877</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.587031070405715</v>
+        <v>3.278227529335538</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.001542827451715</v>
+        <v>2.396502250463072</v>
       </c>
       <c r="C22">
-        <v>0.792162795513832</v>
+        <v>0.2998472816076401</v>
       </c>
       <c r="D22">
-        <v>0.3467017274003155</v>
+        <v>0.5036509503564588</v>
       </c>
       <c r="E22">
-        <v>0.056321691370945</v>
+        <v>0.1551886142516405</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4738632218197267</v>
+        <v>0.7750312427201465</v>
       </c>
       <c r="H22">
-        <v>0.3241535949896814</v>
+        <v>0.8498165117506886</v>
       </c>
       <c r="I22">
-        <v>0.2061226564437533</v>
+        <v>0.7649329283364885</v>
       </c>
       <c r="J22">
-        <v>0.02623437083673608</v>
+        <v>0.06299399754545476</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6827422107056975</v>
+        <v>0.5268669430553103</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.633758732567685</v>
+        <v>3.262447908896092</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.781210666697177</v>
+        <v>2.329141186723575</v>
       </c>
       <c r="C23">
-        <v>0.7664589467499923</v>
+        <v>0.2915290343340757</v>
       </c>
       <c r="D23">
-        <v>0.3383192755819806</v>
+        <v>0.5027460177339407</v>
       </c>
       <c r="E23">
-        <v>0.0561826906595968</v>
+        <v>0.1555711571576666</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4635888597254194</v>
+        <v>0.7764600978872522</v>
       </c>
       <c r="H23">
-        <v>0.3224640069221323</v>
+        <v>0.8523623361189294</v>
       </c>
       <c r="I23">
-        <v>0.2095155268813009</v>
+        <v>0.7694527792394403</v>
       </c>
       <c r="J23">
-        <v>0.02634559872601905</v>
+        <v>0.06309212390603136</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6597026934085761</v>
+        <v>0.5210718445394065</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.608258556882561</v>
+        <v>3.27068630357337</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.950268495624982</v>
+        <v>2.073788895813323</v>
       </c>
       <c r="C24">
-        <v>0.669427242328112</v>
+        <v>0.259929081842273</v>
       </c>
       <c r="D24">
-        <v>0.3075824800970111</v>
+        <v>0.4997202401932981</v>
       </c>
       <c r="E24">
-        <v>0.05588149120691099</v>
+        <v>0.1571353524977894</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4283233598813752</v>
+        <v>0.7829824260012828</v>
       </c>
       <c r="H24">
-        <v>0.3180441894461978</v>
+        <v>0.8628124638721459</v>
       </c>
       <c r="I24">
-        <v>0.2249499778746049</v>
+        <v>0.7875352922221026</v>
       </c>
       <c r="J24">
-        <v>0.02680156830314928</v>
+        <v>0.06348734917001408</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.573387214204331</v>
+        <v>0.4993755230357095</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.523537185470587</v>
+        <v>3.305915212793394</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.059559997847543</v>
+        <v>1.797946249039455</v>
       </c>
       <c r="C25">
-        <v>0.5652396371299346</v>
+        <v>0.2256506097980377</v>
       </c>
       <c r="D25">
-        <v>0.2763537866540702</v>
+        <v>0.4973168993132617</v>
       </c>
       <c r="E25">
-        <v>0.05600172512538037</v>
+        <v>0.1590695132284061</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3971685985124935</v>
+        <v>0.792381061626088</v>
       </c>
       <c r="H25">
-        <v>0.3170974926723886</v>
+        <v>0.8758100735997942</v>
       </c>
       <c r="I25">
-        <v>0.2465898346864144</v>
+        <v>0.8090937528665592</v>
       </c>
       <c r="J25">
-        <v>0.02736579737037914</v>
+        <v>0.06396437971413249</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4819818696355611</v>
+        <v>0.4765187311326855</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.4547052031742</v>
+        <v>3.352495637072678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.59454423119314</v>
+        <v>3.406634962324858</v>
       </c>
       <c r="C2">
-        <v>0.2002520751363761</v>
+        <v>0.4887374648838545</v>
       </c>
       <c r="D2">
-        <v>0.4962892435936936</v>
+        <v>0.2547969819453186</v>
       </c>
       <c r="E2">
-        <v>0.1607066697175679</v>
+        <v>0.05643966992322191</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8013244342879347</v>
+        <v>0.3793131526289812</v>
       </c>
       <c r="H2">
-        <v>0.8868644463710922</v>
+        <v>0.3193121411183171</v>
       </c>
       <c r="I2">
-        <v>0.8267295841770377</v>
+        <v>0.2663315071958472</v>
       </c>
       <c r="J2">
-        <v>0.06435962793137051</v>
+        <v>0.02784196580767961</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4601634685019036</v>
+        <v>0.4158397316629134</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.394152705191658</v>
+        <v>1.420861422393457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.456537482687565</v>
+        <v>2.965097534688709</v>
       </c>
       <c r="C3">
-        <v>0.1829435412272744</v>
+        <v>0.436934467570552</v>
       </c>
       <c r="D3">
-        <v>0.4960566728477431</v>
+        <v>0.2409837796448642</v>
       </c>
       <c r="E3">
-        <v>0.1619494273977473</v>
+        <v>0.05693908634934175</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8086428600207043</v>
+        <v>0.3700016698291293</v>
       </c>
       <c r="H3">
-        <v>0.8952821707344256</v>
+        <v>0.3224587708956932</v>
       </c>
       <c r="I3">
-        <v>0.8397790004629151</v>
+        <v>0.2818646642105236</v>
       </c>
       <c r="J3">
-        <v>0.0646551489122924</v>
+        <v>0.02820186950768466</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4493776750452128</v>
+        <v>0.3716012925743399</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.426965657155577</v>
+        <v>1.407260913853662</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.37173391705204</v>
+        <v>2.694211755864842</v>
       </c>
       <c r="C4">
-        <v>0.1722703648450761</v>
+        <v>0.4051227888757012</v>
       </c>
       <c r="D4">
-        <v>0.4961431168577661</v>
+        <v>0.2328644729495721</v>
       </c>
       <c r="E4">
-        <v>0.1627783241024012</v>
+        <v>0.05734093618565161</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8137551243897789</v>
+        <v>0.3655431451363214</v>
       </c>
       <c r="H4">
-        <v>0.9009075401268944</v>
+        <v>0.3251502795200523</v>
       </c>
       <c r="I4">
-        <v>0.8483320162841572</v>
+        <v>0.2923962842047789</v>
       </c>
       <c r="J4">
-        <v>0.06485031052647372</v>
+        <v>0.02844099649733067</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4429033895283254</v>
+        <v>0.3446871521157533</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.449369706683456</v>
+        <v>1.403157189559735</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.337161429472189</v>
+        <v>2.583846055349909</v>
       </c>
       <c r="C5">
-        <v>0.167909793390379</v>
+        <v>0.3921548444243115</v>
       </c>
       <c r="D5">
-        <v>0.4962360746216348</v>
+        <v>0.2296425909694619</v>
       </c>
       <c r="E5">
-        <v>0.1631326789052387</v>
+        <v>0.05752796507346325</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8159937855378132</v>
+        <v>0.3640263411392581</v>
       </c>
       <c r="H5">
-        <v>0.9033148102327146</v>
+        <v>0.3264307027853519</v>
       </c>
       <c r="I5">
-        <v>0.8519532596537545</v>
+        <v>0.2969283168420862</v>
       </c>
       <c r="J5">
-        <v>0.06493329817005478</v>
+        <v>0.02854297684722518</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4403025720704932</v>
+        <v>0.3337763719710267</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.459066581365775</v>
+        <v>1.402502546555382</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.331419900795822</v>
+        <v>2.565520353776549</v>
       </c>
       <c r="C6">
-        <v>0.167185058869336</v>
+        <v>0.3900011677197028</v>
       </c>
       <c r="D6">
-        <v>0.4962549995388343</v>
+        <v>0.2291127224720242</v>
       </c>
       <c r="E6">
-        <v>0.163192520699587</v>
+        <v>0.05756040765438897</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8163748914096942</v>
+        <v>0.3637921353239051</v>
       </c>
       <c r="H6">
-        <v>0.9037214746680391</v>
+        <v>0.326654197293422</v>
       </c>
       <c r="I6">
-        <v>0.8525627639181987</v>
+        <v>0.2976950969294219</v>
       </c>
       <c r="J6">
-        <v>0.06494728733896959</v>
+        <v>0.02856018366626056</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4398729804483281</v>
+        <v>0.3319679295912294</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.460710975103282</v>
+        <v>1.402453883055415</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.37126771519678</v>
+        <v>2.692723276318702</v>
       </c>
       <c r="C7">
-        <v>0.1722116014380788</v>
+        <v>0.4049479207646414</v>
       </c>
       <c r="D7">
-        <v>0.4961441366531147</v>
+        <v>0.2328206755191218</v>
       </c>
       <c r="E7">
-        <v>0.1627830359303424</v>
+        <v>0.05734336515732252</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.813784686943066</v>
+        <v>0.3655214951244616</v>
       </c>
       <c r="H7">
-        <v>0.9009395402352354</v>
+        <v>0.3251668137857635</v>
       </c>
       <c r="I7">
-        <v>0.8483803038741176</v>
+        <v>0.2924564442381605</v>
       </c>
       <c r="J7">
-        <v>0.06485141571357822</v>
+        <v>0.02844235351732483</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4428681618237249</v>
+        <v>0.3445397819940297</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.449498186781526</v>
+        <v>1.4031443050457</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.546974813536792</v>
+        <v>3.2543265851005</v>
       </c>
       <c r="C8">
-        <v>0.1942937553513104</v>
+        <v>0.4708746228969574</v>
       </c>
       <c r="D8">
-        <v>0.496161524037035</v>
+        <v>0.2499564235987322</v>
       </c>
       <c r="E8">
-        <v>0.1611215180402024</v>
+        <v>0.05659169687701215</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8037192848971486</v>
+        <v>0.3758311460969637</v>
       </c>
       <c r="H8">
-        <v>0.8896720623748706</v>
+        <v>0.3202349281565304</v>
       </c>
       <c r="I8">
-        <v>0.8311167439082361</v>
+        <v>0.2714750244435855</v>
       </c>
       <c r="J8">
-        <v>0.06445868397692323</v>
+        <v>0.02796227691774433</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4564138950918846</v>
+        <v>0.400531317763793</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.404997955104321</v>
+        <v>1.415259448928055</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.89091444080691</v>
+        <v>4.359025449274384</v>
       </c>
       <c r="C9">
-        <v>0.2372226077008861</v>
+        <v>0.6002901396982452</v>
       </c>
       <c r="D9">
-        <v>0.4980113562771891</v>
+        <v>0.2866360281656171</v>
       </c>
       <c r="E9">
-        <v>0.1583849395572461</v>
+        <v>0.05590480643529538</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.7889002131679774</v>
+        <v>0.4068200081789541</v>
       </c>
       <c r="H9">
-        <v>0.8712012595851064</v>
+        <v>0.3169402122626934</v>
       </c>
       <c r="I9">
-        <v>0.8015577178457498</v>
+        <v>0.2386778693855902</v>
       </c>
       <c r="J9">
-        <v>0.06379688086221513</v>
+        <v>0.02716620533984937</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4841447559719825</v>
+        <v>0.5125726414645584</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.335660337338084</v>
+        <v>1.475112619140248</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.143131559468145</v>
+        <v>5.175269542669525</v>
       </c>
       <c r="C10">
-        <v>0.2685215305963595</v>
+        <v>0.6957164125578004</v>
       </c>
       <c r="D10">
-        <v>0.5004738819357328</v>
+        <v>0.3157626810690601</v>
       </c>
       <c r="E10">
-        <v>0.1566913919459161</v>
+        <v>0.05592655364300647</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7810256979376931</v>
+        <v>0.4373116315253043</v>
       </c>
       <c r="H10">
-        <v>0.8598402759256913</v>
+        <v>0.3189244452723159</v>
       </c>
       <c r="I10">
-        <v>0.7824654851299861</v>
+        <v>0.2203437360475711</v>
       </c>
       <c r="J10">
-        <v>0.06337610262314897</v>
+        <v>0.02667203289031228</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5052216395487079</v>
+        <v>0.5966663796681217</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.295677097891087</v>
+        <v>1.544629827040836</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.257749858687419</v>
+        <v>5.548225530819536</v>
       </c>
       <c r="C11">
-        <v>0.2827054323715572</v>
+        <v>0.7392677960682761</v>
       </c>
       <c r="D11">
-        <v>0.5018330762063385</v>
+        <v>0.3295581892288055</v>
       </c>
       <c r="E11">
-        <v>0.1559895816481234</v>
+        <v>0.05606176443773236</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7781007153527071</v>
+        <v>0.4531362151963663</v>
       </c>
       <c r="H11">
-        <v>0.8551516306786766</v>
+        <v>0.3209070616268832</v>
       </c>
       <c r="I11">
-        <v>0.7743512763347056</v>
+        <v>0.2134142121751381</v>
       </c>
       <c r="J11">
-        <v>0.06319876545307679</v>
+        <v>0.02646742607490182</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5149610106036135</v>
+        <v>0.6354075204402392</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.279873957306961</v>
+        <v>1.582645217718465</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.301133980230418</v>
+        <v>5.689745194127283</v>
       </c>
       <c r="C12">
-        <v>0.2880684513825713</v>
+        <v>0.7557856109994532</v>
       </c>
       <c r="D12">
-        <v>0.5023820604756679</v>
+        <v>0.3348670635254365</v>
       </c>
       <c r="E12">
-        <v>0.1557336716967672</v>
+        <v>0.0561319706625536</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7770878432330619</v>
+        <v>0.4594343485398724</v>
       </c>
       <c r="H12">
-        <v>0.8534451218849455</v>
+        <v>0.3218242608200939</v>
       </c>
       <c r="I12">
-        <v>0.771360872013986</v>
+        <v>0.2110074910685462</v>
       </c>
       <c r="J12">
-        <v>0.063133626843209</v>
+        <v>0.02639289782268861</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5186706320100853</v>
+        <v>0.6501564987466963</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.274233271398714</v>
+        <v>1.598035730358987</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.291791334505774</v>
+        <v>5.659252641597959</v>
       </c>
       <c r="C13">
-        <v>0.2869137955317456</v>
+        <v>0.7522269615580228</v>
       </c>
       <c r="D13">
-        <v>0.5022623032136693</v>
+        <v>0.3337198242810331</v>
       </c>
       <c r="E13">
-        <v>0.1557883485954701</v>
+        <v>0.05611598885952773</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7773017650631147</v>
+        <v>0.4580639226869749</v>
       </c>
       <c r="H13">
-        <v>0.8538095808181367</v>
+        <v>0.3216191377370876</v>
       </c>
       <c r="I13">
-        <v>0.7720012473940585</v>
+        <v>0.2115159136940008</v>
       </c>
       <c r="J13">
-        <v>0.06314756612915495</v>
+        <v>0.0264088167251586</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5178707447411313</v>
+        <v>0.6469764048445228</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.275432801939019</v>
+        <v>1.594675592252941</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.261319498816704</v>
+        <v>5.559862320198249</v>
       </c>
       <c r="C14">
-        <v>0.2831468157357335</v>
+        <v>0.7406261753341141</v>
       </c>
       <c r="D14">
-        <v>0.501877554759119</v>
+        <v>0.3299932156948273</v>
       </c>
       <c r="E14">
-        <v>0.1559683304417092</v>
+        <v>0.05606715358423209</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7780154852643335</v>
+        <v>0.4536480912963015</v>
       </c>
       <c r="H14">
-        <v>0.8550098525822563</v>
+        <v>0.3209791180735806</v>
       </c>
       <c r="I14">
-        <v>0.7741036041796079</v>
+        <v>0.2132117673736147</v>
       </c>
       <c r="J14">
-        <v>0.06319336612583193</v>
+        <v>0.02646123514233523</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5152657731888581</v>
+        <v>0.636619301904318</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.279403004604916</v>
+        <v>1.583891010878489</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.242652024551603</v>
+        <v>5.499022208835811</v>
       </c>
       <c r="C15">
-        <v>0.2808383649970949</v>
+        <v>0.7335238968035185</v>
       </c>
       <c r="D15">
-        <v>0.5016463480720574</v>
+        <v>0.3277218019668595</v>
       </c>
       <c r="E15">
-        <v>0.156079856937744</v>
+        <v>0.05603974591112326</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7784650069597632</v>
+        <v>0.4509838448808097</v>
       </c>
       <c r="H15">
-        <v>0.8557540375788335</v>
+        <v>0.320609105301827</v>
       </c>
       <c r="I15">
-        <v>0.7754020774803152</v>
+        <v>0.2142792779389886</v>
       </c>
       <c r="J15">
-        <v>0.06322168210671819</v>
+        <v>0.0264937288482372</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.513672950114028</v>
+        <v>0.6302857731834166</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.281879635584204</v>
+        <v>1.577417054784092</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.135638417764881</v>
+        <v>5.150933486495774</v>
       </c>
       <c r="C16">
-        <v>0.2675934614484845</v>
+        <v>0.6928735343620076</v>
       </c>
       <c r="D16">
-        <v>0.5003898575943992</v>
+        <v>0.3148726247140416</v>
       </c>
       <c r="E16">
-        <v>0.1567386360356515</v>
+        <v>0.05592032165296779</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7812300982386375</v>
+        <v>0.4363188482355156</v>
       </c>
       <c r="H16">
-        <v>0.8601563412505584</v>
+        <v>0.3188175411575713</v>
       </c>
       <c r="I16">
-        <v>0.7830072710943909</v>
+        <v>0.2208261988413227</v>
       </c>
       <c r="J16">
-        <v>0.06338797450696632</v>
+        <v>0.02668581480944177</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5045881748422971</v>
+        <v>0.5941450638018893</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.296757922528116</v>
+        <v>1.542280402387576</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.069957344060583</v>
+        <v>4.937849462585859</v>
       </c>
       <c r="C17">
-        <v>0.259454039408098</v>
+        <v>0.6679758642349327</v>
       </c>
       <c r="D17">
-        <v>0.4996801941410638</v>
+        <v>0.3071342032090172</v>
       </c>
       <c r="E17">
-        <v>0.1571603345749839</v>
+        <v>0.05587983539527563</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.7830948917588501</v>
+        <v>0.4278398136671768</v>
       </c>
       <c r="H17">
-        <v>0.8629798468234213</v>
+        <v>0.3180027461373669</v>
       </c>
       <c r="I17">
-        <v>0.7878191640600818</v>
+        <v>0.2252138323276647</v>
       </c>
       <c r="J17">
-        <v>0.06349358843460884</v>
+        <v>0.02680885862322491</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4990535653969914</v>
+        <v>0.57210441639576</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.306496663305097</v>
+        <v>1.522414475304856</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.032168512044962</v>
+        <v>4.815440330257445</v>
       </c>
       <c r="C18">
-        <v>0.2547673833179545</v>
+        <v>0.6536683440988327</v>
       </c>
       <c r="D18">
-        <v>0.4992945129920656</v>
+        <v>0.302734220727686</v>
       </c>
       <c r="E18">
-        <v>0.1574093415077531</v>
+        <v>0.05586828156900303</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.7842293128688453</v>
+        <v>0.423145212418703</v>
       </c>
       <c r="H18">
-        <v>0.864648986069497</v>
+        <v>0.3176350377157178</v>
       </c>
       <c r="I18">
-        <v>0.7906405674235657</v>
+        <v>0.2278693459036809</v>
       </c>
       <c r="J18">
-        <v>0.06355566030163828</v>
+        <v>0.02688152790597265</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4958844681513312</v>
+        <v>0.5594724558045669</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.312322622369976</v>
+        <v>1.511584879752689</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.019372084315876</v>
+        <v>4.774019114396594</v>
       </c>
       <c r="C19">
-        <v>0.2531797004918133</v>
+        <v>0.6488261295510824</v>
       </c>
       <c r="D19">
-        <v>0.4991677944964863</v>
+        <v>0.3012530272017244</v>
       </c>
       <c r="E19">
-        <v>0.157494760390632</v>
+        <v>0.05586635583760824</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.7846240218720482</v>
+        <v>0.421586288685063</v>
       </c>
       <c r="H19">
-        <v>0.8652218789184474</v>
+        <v>0.3175275486485134</v>
       </c>
       <c r="I19">
-        <v>0.7916050691036887</v>
+        <v>0.2287906802942068</v>
       </c>
       <c r="J19">
-        <v>0.06357690470989574</v>
+        <v>0.02690645701363792</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4948139233220274</v>
+        <v>0.5552030092942459</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.314333730628249</v>
+        <v>1.508018438491348</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.076950344642455</v>
+        <v>4.960516604755128</v>
       </c>
       <c r="C20">
-        <v>0.2603210225246926</v>
+        <v>0.6706248838974886</v>
       </c>
       <c r="D20">
-        <v>0.4997534110828781</v>
+        <v>0.3079526533779244</v>
       </c>
       <c r="E20">
-        <v>0.1571147758573748</v>
+        <v>0.05588292400675066</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.7828899791233823</v>
+        <v>0.4287233788476215</v>
       </c>
       <c r="H20">
-        <v>0.8626746085058983</v>
+        <v>0.3180789575312559</v>
       </c>
       <c r="I20">
-        <v>0.7873013677768768</v>
+        <v>0.2247330123687803</v>
       </c>
       <c r="J20">
-        <v>0.06348220853050179</v>
+        <v>0.02679556365536051</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4996412594996684</v>
+        <v>0.5744459389442085</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.305436719199804</v>
+        <v>1.52446694322478</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.270270360992868</v>
+        <v>5.589047369380182</v>
       </c>
       <c r="C21">
-        <v>0.2842534919327875</v>
+        <v>0.7440328596438519</v>
       </c>
       <c r="D21">
-        <v>0.5019896347915562</v>
+        <v>0.3310854562419507</v>
       </c>
       <c r="E21">
-        <v>0.1559151981794038</v>
+        <v>0.05608097372539511</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7778032746883383</v>
+        <v>0.4549366248635778</v>
       </c>
       <c r="H21">
-        <v>0.854655431393482</v>
+        <v>0.3211624978552408</v>
       </c>
       <c r="I21">
-        <v>0.773483856884372</v>
+        <v>0.2127076350055326</v>
       </c>
       <c r="J21">
-        <v>0.06317985893912592</v>
+        <v>0.02644575806797889</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5160303339629877</v>
+        <v>0.6396592304730007</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.278227529335538</v>
+        <v>1.587031070405658</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.396502250463072</v>
+        <v>6.001542827451601</v>
       </c>
       <c r="C22">
-        <v>0.2998472816076401</v>
+        <v>0.7921627955137467</v>
       </c>
       <c r="D22">
-        <v>0.5036509503564588</v>
+        <v>0.3467017274003723</v>
       </c>
       <c r="E22">
-        <v>0.1551886142516405</v>
+        <v>0.05632169137096099</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7750312427201465</v>
+        <v>0.4738632218196841</v>
       </c>
       <c r="H22">
-        <v>0.8498165117506886</v>
+        <v>0.3241535949895678</v>
       </c>
       <c r="I22">
-        <v>0.7649329283364885</v>
+        <v>0.2061226564437675</v>
       </c>
       <c r="J22">
-        <v>0.06299399754545476</v>
+        <v>0.02623437083669877</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5268669430553103</v>
+        <v>0.6827422107056975</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.262447908896092</v>
+        <v>1.633758732567713</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.329141186723575</v>
+        <v>5.781210666697234</v>
       </c>
       <c r="C23">
-        <v>0.2915290343340757</v>
+        <v>0.7664589467501912</v>
       </c>
       <c r="D23">
-        <v>0.5027460177339407</v>
+        <v>0.3383192755819238</v>
       </c>
       <c r="E23">
-        <v>0.1555711571576666</v>
+        <v>0.05618269065961101</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7764600978872522</v>
+        <v>0.463588859725391</v>
       </c>
       <c r="H23">
-        <v>0.8523623361189294</v>
+        <v>0.3224640069221323</v>
       </c>
       <c r="I23">
-        <v>0.7694527792394403</v>
+        <v>0.2095155268812974</v>
       </c>
       <c r="J23">
-        <v>0.06309212390603136</v>
+        <v>0.02634559872598174</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5210718445394065</v>
+        <v>0.6597026934085903</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.27068630357337</v>
+        <v>1.608258556882532</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.073788895813323</v>
+        <v>4.95026849562521</v>
       </c>
       <c r="C24">
-        <v>0.259929081842273</v>
+        <v>0.669427242328311</v>
       </c>
       <c r="D24">
-        <v>0.4997202401932981</v>
+        <v>0.3075824800971247</v>
       </c>
       <c r="E24">
-        <v>0.1571353524977894</v>
+        <v>0.05588149120691099</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7829824260012828</v>
+        <v>0.4283233598814036</v>
       </c>
       <c r="H24">
-        <v>0.8628124638721459</v>
+        <v>0.3180441894461978</v>
       </c>
       <c r="I24">
-        <v>0.7875352922221026</v>
+        <v>0.2249499778746014</v>
       </c>
       <c r="J24">
-        <v>0.06348734917001408</v>
+        <v>0.02680156830307112</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4993755230357095</v>
+        <v>0.5733872142043452</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.305915212793394</v>
+        <v>1.523537185470587</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.797946249039455</v>
+        <v>4.059559997847657</v>
       </c>
       <c r="C25">
-        <v>0.2256506097980377</v>
+        <v>0.5652396371300767</v>
       </c>
       <c r="D25">
-        <v>0.4973168993132617</v>
+        <v>0.2763537866542691</v>
       </c>
       <c r="E25">
-        <v>0.1590695132284061</v>
+        <v>0.05600172512537682</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.792381061626088</v>
+        <v>0.3971685985124367</v>
       </c>
       <c r="H25">
-        <v>0.8758100735997942</v>
+        <v>0.3170974926723886</v>
       </c>
       <c r="I25">
-        <v>0.8090937528665592</v>
+        <v>0.2465898346864179</v>
       </c>
       <c r="J25">
-        <v>0.06396437971413249</v>
+        <v>0.02736579737025302</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4765187311326855</v>
+        <v>0.4819818696355895</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.352495637072678</v>
+        <v>1.454705203174228</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.406634962324858</v>
+        <v>2.465934824889928</v>
       </c>
       <c r="C2">
-        <v>0.4887374648838545</v>
+        <v>0.3658118882304393</v>
       </c>
       <c r="D2">
-        <v>0.2547969819453186</v>
+        <v>0.2852528198133228</v>
       </c>
       <c r="E2">
-        <v>0.05643966992322191</v>
+        <v>0.07535593573552468</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3793131526289812</v>
+        <v>0.5238698692045887</v>
       </c>
       <c r="H2">
-        <v>0.3193121411183171</v>
+        <v>0.001953745817515729</v>
       </c>
       <c r="I2">
-        <v>0.2663315071958472</v>
+        <v>0.001295477698755931</v>
       </c>
       <c r="J2">
-        <v>0.02784196580767961</v>
+        <v>0.403381068271969</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.385174314600139</v>
       </c>
       <c r="L2">
-        <v>0.4158397316629134</v>
+        <v>0.03841255642748909</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3850996723063247</v>
       </c>
       <c r="O2">
-        <v>1.420861422393457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.905297922557196</v>
+      </c>
+      <c r="Q2">
+        <v>1.90279979691519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.965097534688709</v>
+        <v>2.152177579086015</v>
       </c>
       <c r="C3">
-        <v>0.436934467570552</v>
+        <v>0.3283056547483767</v>
       </c>
       <c r="D3">
-        <v>0.2409837796448642</v>
+        <v>0.2663580829397176</v>
       </c>
       <c r="E3">
-        <v>0.05693908634934175</v>
+        <v>0.07218853006695802</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3700016698291293</v>
+        <v>0.4940515739910296</v>
       </c>
       <c r="H3">
-        <v>0.3224587708956932</v>
+        <v>0.003340588013741819</v>
       </c>
       <c r="I3">
-        <v>0.2818646642105236</v>
+        <v>0.002154652328163476</v>
       </c>
       <c r="J3">
-        <v>0.02820186950768466</v>
+        <v>0.3935320362443662</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3821563764021541</v>
       </c>
       <c r="L3">
-        <v>0.3716012925743399</v>
+        <v>0.03601793282475896</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3438861748927877</v>
       </c>
       <c r="O3">
-        <v>1.407260913853662</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9106157576744209</v>
+      </c>
+      <c r="Q3">
+        <v>1.818663968022747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.694211755864842</v>
+        <v>1.958835794400102</v>
       </c>
       <c r="C4">
-        <v>0.4051227888757012</v>
+        <v>0.3053551545252589</v>
       </c>
       <c r="D4">
-        <v>0.2328644729495721</v>
+        <v>0.254874719266212</v>
       </c>
       <c r="E4">
-        <v>0.05734093618565161</v>
+        <v>0.07022721961898526</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3655431451363214</v>
+        <v>0.4761541972889489</v>
       </c>
       <c r="H4">
-        <v>0.3251502795200523</v>
+        <v>0.004416766077833922</v>
       </c>
       <c r="I4">
-        <v>0.2923962842047789</v>
+        <v>0.002890891709079746</v>
       </c>
       <c r="J4">
-        <v>0.02844099649733067</v>
+        <v>0.387770552173194</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3805680755055185</v>
       </c>
       <c r="L4">
-        <v>0.3446871521157533</v>
+        <v>0.03453363749417449</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3186590968757912</v>
       </c>
       <c r="O4">
-        <v>1.403157189559735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9145770791550092</v>
+      </c>
+      <c r="Q4">
+        <v>1.768465396581774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.583846055349909</v>
+        <v>1.878815988046597</v>
       </c>
       <c r="C5">
-        <v>0.3921548444243115</v>
+        <v>0.2964352255590939</v>
       </c>
       <c r="D5">
-        <v>0.2296425909694619</v>
+        <v>0.250163682943068</v>
       </c>
       <c r="E5">
-        <v>0.05752796507346325</v>
+        <v>0.06939589483511632</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3640263411392581</v>
+        <v>0.4685303180552296</v>
       </c>
       <c r="H5">
-        <v>0.3264307027853519</v>
+        <v>0.004912303278755414</v>
       </c>
       <c r="I5">
-        <v>0.2969283168420862</v>
+        <v>0.003316028366817214</v>
       </c>
       <c r="J5">
-        <v>0.02854297684722518</v>
+        <v>0.3852734195572509</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.379662909544102</v>
       </c>
       <c r="L5">
-        <v>0.3337763719710267</v>
+        <v>0.0339233044643068</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3085379142410432</v>
       </c>
       <c r="O5">
-        <v>1.402502546555382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9166691951107566</v>
+      </c>
+      <c r="Q5">
+        <v>1.746993319436882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.565520353776549</v>
+        <v>1.864228944122885</v>
       </c>
       <c r="C6">
-        <v>0.3900011677197028</v>
+        <v>0.2954654669470926</v>
       </c>
       <c r="D6">
-        <v>0.2291127224720242</v>
+        <v>0.2493102248601957</v>
       </c>
       <c r="E6">
-        <v>0.05756040765438897</v>
+        <v>0.06922373983127805</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3637921353239051</v>
+        <v>0.4667468639170664</v>
       </c>
       <c r="H6">
-        <v>0.326654197293422</v>
+        <v>0.005001280016276477</v>
       </c>
       <c r="I6">
-        <v>0.2976950969294219</v>
+        <v>0.003488458384250492</v>
       </c>
       <c r="J6">
-        <v>0.02856018366626056</v>
+        <v>0.3845956646288329</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.379122993840749</v>
       </c>
       <c r="L6">
-        <v>0.3319679295912294</v>
+        <v>0.03382021383716882</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3070322632755733</v>
       </c>
       <c r="O6">
-        <v>1.402453883055415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9174050082342262</v>
+      </c>
+      <c r="Q6">
+        <v>1.741779583881709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.692723276318702</v>
+        <v>1.954224991843091</v>
       </c>
       <c r="C7">
-        <v>0.4049479207646414</v>
+        <v>0.3066330955992811</v>
       </c>
       <c r="D7">
-        <v>0.2328206755191218</v>
+        <v>0.2546122131140436</v>
       </c>
       <c r="E7">
-        <v>0.05734336515732252</v>
+        <v>0.07012376914866714</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3655214951244616</v>
+        <v>0.474621034756737</v>
       </c>
       <c r="H7">
-        <v>0.3251668137857635</v>
+        <v>0.004431964181253134</v>
       </c>
       <c r="I7">
-        <v>0.2924564442381605</v>
+        <v>0.00315036824457593</v>
       </c>
       <c r="J7">
-        <v>0.02844235351732483</v>
+        <v>0.3870071306714209</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.379481795220034</v>
       </c>
       <c r="L7">
-        <v>0.3445397819940297</v>
+        <v>0.03452159465883664</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.318998778414894</v>
       </c>
       <c r="O7">
-        <v>1.4031443050457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9156519052602334</v>
+      </c>
+      <c r="Q7">
+        <v>1.763615206838352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.2543265851005</v>
+        <v>2.353168774877133</v>
       </c>
       <c r="C8">
-        <v>0.4708746228969574</v>
+        <v>0.3547320995529049</v>
       </c>
       <c r="D8">
-        <v>0.2499564235987322</v>
+        <v>0.2784495346292175</v>
       </c>
       <c r="E8">
-        <v>0.05659169687701215</v>
+        <v>0.07414574459642509</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3758311460969637</v>
+        <v>0.5116045081571627</v>
       </c>
       <c r="H8">
-        <v>0.3202349281565304</v>
+        <v>0.002391878125719393</v>
       </c>
       <c r="I8">
-        <v>0.2714750244435855</v>
+        <v>0.001850391869863799</v>
       </c>
       <c r="J8">
-        <v>0.02796227691774433</v>
+        <v>0.398960773641889</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3826612196702115</v>
       </c>
       <c r="L8">
-        <v>0.400531317763793</v>
+        <v>0.03758513867370006</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3715062482503839</v>
       </c>
       <c r="O8">
-        <v>1.415259448928055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.9084326248073751</v>
+      </c>
+      <c r="Q8">
+        <v>1.867440506463822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.359025449274384</v>
+        <v>3.13664776934894</v>
       </c>
       <c r="C9">
-        <v>0.6002901396982452</v>
+        <v>0.4473039941855177</v>
       </c>
       <c r="D9">
-        <v>0.2866360281656171</v>
+        <v>0.3265661413644949</v>
       </c>
       <c r="E9">
-        <v>0.05590480643529538</v>
+        <v>0.08207764932190642</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4068200081789541</v>
+        <v>0.5902494687733935</v>
       </c>
       <c r="H9">
-        <v>0.3169402122626934</v>
+        <v>0.0002751472907052133</v>
       </c>
       <c r="I9">
-        <v>0.2386778693855902</v>
+        <v>0.0006811432782800608</v>
       </c>
       <c r="J9">
-        <v>0.02716620533984937</v>
+        <v>0.4261005038471524</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3930303872764505</v>
       </c>
       <c r="L9">
-        <v>0.5125726414645584</v>
+        <v>0.04352073211480878</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4743625097129325</v>
       </c>
       <c r="O9">
-        <v>1.475112619140248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8980501055477248</v>
+      </c>
+      <c r="Q9">
+        <v>2.091690200599913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.175269542669525</v>
+        <v>3.692300643803605</v>
       </c>
       <c r="C10">
-        <v>0.6957164125578004</v>
+        <v>0.5186107669907187</v>
       </c>
       <c r="D10">
-        <v>0.3157626810690601</v>
+        <v>0.3574241003886556</v>
       </c>
       <c r="E10">
-        <v>0.05592655364300647</v>
+        <v>0.08564838353509252</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4373116315253043</v>
+        <v>0.6424060789283601</v>
       </c>
       <c r="H10">
-        <v>0.3189244452723159</v>
+        <v>0.000208305745849291</v>
       </c>
       <c r="I10">
-        <v>0.2203437360475711</v>
+        <v>0.001158716693789863</v>
       </c>
       <c r="J10">
-        <v>0.02667203289031228</v>
+        <v>0.4435924110894831</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3973648536988392</v>
       </c>
       <c r="L10">
-        <v>0.5966663796681217</v>
+        <v>0.04827201596357256</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5371274702665829</v>
       </c>
       <c r="O10">
-        <v>1.544629827040836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.900151769903502</v>
+      </c>
+      <c r="Q10">
+        <v>2.239354597535453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.548225530819536</v>
+        <v>3.803302317187388</v>
       </c>
       <c r="C11">
-        <v>0.7392677960682761</v>
+        <v>0.570448225889379</v>
       </c>
       <c r="D11">
-        <v>0.3295581892288055</v>
+        <v>0.3276478755419703</v>
       </c>
       <c r="E11">
-        <v>0.05606176443773236</v>
+        <v>0.07077457659161013</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4531362151963663</v>
+        <v>0.6000440582470503</v>
       </c>
       <c r="H11">
-        <v>0.3209070616268832</v>
+        <v>0.01878124348000654</v>
       </c>
       <c r="I11">
-        <v>0.2134142121751381</v>
+        <v>0.001878782624493702</v>
       </c>
       <c r="J11">
-        <v>0.02646742607490182</v>
+        <v>0.418636136789118</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3619113076850589</v>
       </c>
       <c r="L11">
-        <v>0.6354075204402392</v>
+        <v>0.05815401404919385</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4527742101556811</v>
       </c>
       <c r="O11">
-        <v>1.582645217718465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9543135459595362</v>
+      </c>
+      <c r="Q11">
+        <v>2.097486314179065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.689745194127283</v>
+        <v>3.783010482394275</v>
       </c>
       <c r="C12">
-        <v>0.7557856109994532</v>
+        <v>0.5976040241060332</v>
       </c>
       <c r="D12">
-        <v>0.3348670635254365</v>
+        <v>0.297341074888493</v>
       </c>
       <c r="E12">
-        <v>0.0561319706625536</v>
+        <v>0.0607533427471072</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4594343485398724</v>
+        <v>0.5560947865903643</v>
       </c>
       <c r="H12">
-        <v>0.3218242608200939</v>
+        <v>0.05743449058032724</v>
       </c>
       <c r="I12">
-        <v>0.2110074910685462</v>
+        <v>0.001903102829110992</v>
       </c>
       <c r="J12">
-        <v>0.02639289782268861</v>
+        <v>0.3951359857365588</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.333805797154433</v>
       </c>
       <c r="L12">
-        <v>0.6501564987466963</v>
+        <v>0.07127193668750209</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3743854625090535</v>
       </c>
       <c r="O12">
-        <v>1.598035730358987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.002627546676777</v>
+      </c>
+      <c r="Q12">
+        <v>1.95517976829035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.659252641597959</v>
+        <v>3.655053501868679</v>
       </c>
       <c r="C13">
-        <v>0.7522269615580228</v>
+        <v>0.6092913427585813</v>
       </c>
       <c r="D13">
-        <v>0.3337198242810331</v>
+        <v>0.2646849968777332</v>
       </c>
       <c r="E13">
-        <v>0.05611598885952773</v>
+        <v>0.05373335975390292</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4580639226869749</v>
+        <v>0.5061389356619088</v>
       </c>
       <c r="H13">
-        <v>0.3216191377370876</v>
+        <v>0.1131457631643258</v>
       </c>
       <c r="I13">
-        <v>0.2115159136940008</v>
+        <v>0.001732631108219529</v>
       </c>
       <c r="J13">
-        <v>0.0264088167251586</v>
+        <v>0.3702247409383119</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.308006116415946</v>
       </c>
       <c r="L13">
-        <v>0.6469764048445228</v>
+        <v>0.08738516880582026</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2972636746301873</v>
       </c>
       <c r="O13">
-        <v>1.594675592252941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.049897849596164</v>
+      </c>
+      <c r="Q13">
+        <v>1.797094192724217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.559862320198249</v>
+        <v>3.516172756804849</v>
       </c>
       <c r="C14">
-        <v>0.7406261753341141</v>
+        <v>0.6109261832367281</v>
       </c>
       <c r="D14">
-        <v>0.3299932156948273</v>
+        <v>0.241075024445891</v>
       </c>
       <c r="E14">
-        <v>0.05606715358423209</v>
+        <v>0.05060494316408604</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4536480912963015</v>
+        <v>0.4685104152534194</v>
       </c>
       <c r="H14">
-        <v>0.3209791180735806</v>
+        <v>0.1624743681993976</v>
       </c>
       <c r="I14">
-        <v>0.2132117673736147</v>
+        <v>0.001628663945706599</v>
       </c>
       <c r="J14">
-        <v>0.02646123514233523</v>
+        <v>0.3521439095039511</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2910371601007107</v>
       </c>
       <c r="L14">
-        <v>0.636619301904318</v>
+        <v>0.1006451477709263</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.245389092333653</v>
       </c>
       <c r="O14">
-        <v>1.583891010878489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.083100382932287</v>
+      </c>
+      <c r="Q14">
+        <v>1.679408203792519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.499022208835811</v>
+        <v>3.458525936998001</v>
       </c>
       <c r="C15">
-        <v>0.7335238968035185</v>
+        <v>0.6085343156572662</v>
       </c>
       <c r="D15">
-        <v>0.3277218019668595</v>
+        <v>0.2346817538903707</v>
       </c>
       <c r="E15">
-        <v>0.05603974591112326</v>
+        <v>0.05006789203932493</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4509838448808097</v>
+        <v>0.4575930588978991</v>
       </c>
       <c r="H15">
-        <v>0.320609105301827</v>
+        <v>0.1749809157244613</v>
       </c>
       <c r="I15">
-        <v>0.2142792779389886</v>
+        <v>0.001686053162464063</v>
       </c>
       <c r="J15">
-        <v>0.0264937288482372</v>
+        <v>0.3472151865951645</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2869780156816795</v>
       </c>
       <c r="L15">
-        <v>0.6302857731834166</v>
+        <v>0.1037517393466985</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2323844066703771</v>
       </c>
       <c r="O15">
-        <v>1.577417054784092</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.090817959916222</v>
+      </c>
+      <c r="Q15">
+        <v>1.645909562843912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.150933486495774</v>
+        <v>3.246309309683227</v>
       </c>
       <c r="C16">
-        <v>0.6928735343620076</v>
+        <v>0.5756954244698989</v>
       </c>
       <c r="D16">
-        <v>0.3148726247140416</v>
+        <v>0.2286073813985894</v>
       </c>
       <c r="E16">
-        <v>0.05592032165296779</v>
+        <v>0.05006187656795635</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4363188482355156</v>
+        <v>0.4449833787741397</v>
       </c>
       <c r="H16">
-        <v>0.3188175411575713</v>
+        <v>0.1622725647335557</v>
       </c>
       <c r="I16">
-        <v>0.2208261988413227</v>
+        <v>0.00160273648477105</v>
       </c>
       <c r="J16">
-        <v>0.02668581480944177</v>
+        <v>0.3444404002581365</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2898201862482104</v>
       </c>
       <c r="L16">
-        <v>0.5941450638018893</v>
+        <v>0.09788488409446217</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2234549238922767</v>
       </c>
       <c r="O16">
-        <v>1.542280402387576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.077666435498713</v>
+      </c>
+      <c r="Q16">
+        <v>1.613169786621029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.937849462585859</v>
+        <v>3.157045503798201</v>
       </c>
       <c r="C17">
-        <v>0.6679758642349327</v>
+        <v>0.5497959654834972</v>
       </c>
       <c r="D17">
-        <v>0.3071342032090172</v>
+        <v>0.2362766105231771</v>
       </c>
       <c r="E17">
-        <v>0.05587983539527563</v>
+        <v>0.05141224702489744</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4278398136671768</v>
+        <v>0.4551265546212022</v>
       </c>
       <c r="H17">
-        <v>0.3180027461373669</v>
+        <v>0.1245469575635383</v>
       </c>
       <c r="I17">
-        <v>0.2252138323276647</v>
+        <v>0.001630995801656709</v>
       </c>
       <c r="J17">
-        <v>0.02680885862322491</v>
+        <v>0.3518721379790009</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3008757531750277</v>
       </c>
       <c r="L17">
-        <v>0.57210441639576</v>
+        <v>0.08594311024511114</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2431969721382643</v>
       </c>
       <c r="O17">
-        <v>1.522414475304856</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.05027429274007</v>
+      </c>
+      <c r="Q17">
+        <v>1.650112255844448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.815440330257445</v>
+        <v>3.165546464848319</v>
       </c>
       <c r="C18">
-        <v>0.6536683440988327</v>
+        <v>0.5258217155758587</v>
       </c>
       <c r="D18">
-        <v>0.302734220727686</v>
+        <v>0.2574364759536536</v>
       </c>
       <c r="E18">
-        <v>0.05586828156900303</v>
+        <v>0.05567814166805451</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.423145212418703</v>
+        <v>0.4874828646072871</v>
       </c>
       <c r="H18">
-        <v>0.3176350377157178</v>
+        <v>0.07173749799481755</v>
       </c>
       <c r="I18">
-        <v>0.2278693459036809</v>
+        <v>0.001410401930073135</v>
       </c>
       <c r="J18">
-        <v>0.02688152790597265</v>
+        <v>0.3696020553302333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3215767234400175</v>
       </c>
       <c r="L18">
-        <v>0.5594724558045669</v>
+        <v>0.07003546607055355</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2932952481222202</v>
       </c>
       <c r="O18">
-        <v>1.511584879752689</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.008175670784993</v>
+      </c>
+      <c r="Q18">
+        <v>1.75576439164243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.774019114396594</v>
+        <v>3.245020877119373</v>
       </c>
       <c r="C19">
-        <v>0.6488261295510824</v>
+        <v>0.5084553826894194</v>
       </c>
       <c r="D19">
-        <v>0.3012530272017244</v>
+        <v>0.2888034829765189</v>
       </c>
       <c r="E19">
-        <v>0.05586635583760824</v>
+        <v>0.06425276753405207</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.421586288685063</v>
+        <v>0.534130282833658</v>
       </c>
       <c r="H19">
-        <v>0.3175275486485134</v>
+        <v>0.02643239741654213</v>
       </c>
       <c r="I19">
-        <v>0.2287906802942068</v>
+        <v>0.001530788058183852</v>
       </c>
       <c r="J19">
-        <v>0.02690645701363792</v>
+        <v>0.3935748162074049</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3480698107579663</v>
       </c>
       <c r="L19">
-        <v>0.5552030092942459</v>
+        <v>0.05613759750777803</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3708527865822191</v>
       </c>
       <c r="O19">
-        <v>1.508018438491348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9630337541612448</v>
+      </c>
+      <c r="Q19">
+        <v>1.904836741222169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.960516604755128</v>
+        <v>3.53460483951153</v>
       </c>
       <c r="C20">
-        <v>0.6706248838974886</v>
+        <v>0.5044412870566077</v>
       </c>
       <c r="D20">
-        <v>0.3079526533779244</v>
+        <v>0.3484425632542525</v>
       </c>
       <c r="E20">
-        <v>0.05588292400675066</v>
+        <v>0.08434459588977283</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4287233788476215</v>
+        <v>0.6237530751323419</v>
       </c>
       <c r="H20">
-        <v>0.3180789575312559</v>
+        <v>0.0001194717489148012</v>
       </c>
       <c r="I20">
-        <v>0.2247330123687803</v>
+        <v>0.001711617902885543</v>
       </c>
       <c r="J20">
-        <v>0.02679556365536051</v>
+        <v>0.4364738483194088</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3926528666768228</v>
       </c>
       <c r="L20">
-        <v>0.5744459389442085</v>
+        <v>0.047031582343533</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5215472339992715</v>
       </c>
       <c r="O20">
-        <v>1.52446694322478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.9032828498458727</v>
+      </c>
+      <c r="Q20">
+        <v>2.184785613677064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.589047369380182</v>
+        <v>3.98631927405944</v>
       </c>
       <c r="C21">
-        <v>0.7440328596438519</v>
+        <v>0.5556387725167724</v>
       </c>
       <c r="D21">
-        <v>0.3310854562419507</v>
+        <v>0.3804504050912669</v>
       </c>
       <c r="E21">
-        <v>0.05608097372539511</v>
+        <v>0.0904673894329715</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4549366248635778</v>
+        <v>0.6772914654422237</v>
       </c>
       <c r="H21">
-        <v>0.3211624978552408</v>
+        <v>0.0002727772407793427</v>
       </c>
       <c r="I21">
-        <v>0.2127076350055326</v>
+        <v>0.002360700036719621</v>
       </c>
       <c r="J21">
-        <v>0.02644575806797889</v>
+        <v>0.4567410974012631</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4038568731893264</v>
       </c>
       <c r="L21">
-        <v>0.6396592304730007</v>
+        <v>0.05009354129149646</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5908235706571645</v>
       </c>
       <c r="O21">
-        <v>1.587031070405658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.89734183446663</v>
+      </c>
+      <c r="Q21">
+        <v>2.341071550897965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.001542827451601</v>
+        <v>4.278142387953778</v>
       </c>
       <c r="C22">
-        <v>0.7921627955137467</v>
+        <v>0.5883671079519956</v>
       </c>
       <c r="D22">
-        <v>0.3467017274003723</v>
+        <v>0.3991912660754338</v>
       </c>
       <c r="E22">
-        <v>0.05632169137096099</v>
+        <v>0.09348546547417413</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4738632218196841</v>
+        <v>0.7109435998541613</v>
       </c>
       <c r="H22">
-        <v>0.3241535949895678</v>
+        <v>0.0007442630810863271</v>
       </c>
       <c r="I22">
-        <v>0.2061226564437675</v>
+        <v>0.002750524589088421</v>
       </c>
       <c r="J22">
-        <v>0.02623437083669877</v>
+        <v>0.4693872506256582</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4107083692727329</v>
       </c>
       <c r="L22">
-        <v>0.6827422107056975</v>
+        <v>0.05231101918934211</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6286736958104768</v>
       </c>
       <c r="O22">
-        <v>1.633758732567713</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8953597690097581</v>
+      </c>
+      <c r="Q22">
+        <v>2.43911173675653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.781210666697234</v>
+        <v>4.126748783684491</v>
       </c>
       <c r="C23">
-        <v>0.7664589467501912</v>
+        <v>0.5691559012088874</v>
       </c>
       <c r="D23">
-        <v>0.3383192755819238</v>
+        <v>0.3894065569239018</v>
       </c>
       <c r="E23">
-        <v>0.05618269065961101</v>
+        <v>0.09198148866444456</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.463588859725391</v>
+        <v>0.6946154862999379</v>
       </c>
       <c r="H23">
-        <v>0.3224640069221323</v>
+        <v>0.0004673204038563306</v>
       </c>
       <c r="I23">
-        <v>0.2095155268812974</v>
+        <v>0.002227032535365936</v>
       </c>
       <c r="J23">
-        <v>0.02634559872598174</v>
+        <v>0.4634562286870789</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4082645092748294</v>
       </c>
       <c r="L23">
-        <v>0.6597026934085903</v>
+        <v>0.0511276572749102</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6078770147135089</v>
       </c>
       <c r="O23">
-        <v>1.608258556882532</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8948933079731347</v>
+      </c>
+      <c r="Q23">
+        <v>2.391961183396859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.95026849562521</v>
+        <v>3.545975481696701</v>
       </c>
       <c r="C24">
-        <v>0.669427242328311</v>
+        <v>0.4994970140867565</v>
       </c>
       <c r="D24">
-        <v>0.3075824800971247</v>
+        <v>0.3523378587972417</v>
       </c>
       <c r="E24">
-        <v>0.05588149120691099</v>
+        <v>0.08611354696305185</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4283233598814036</v>
+        <v>0.6314135592514418</v>
       </c>
       <c r="H24">
-        <v>0.3180441894461978</v>
+        <v>1.56580514998339E-07</v>
       </c>
       <c r="I24">
-        <v>0.2249499778746014</v>
+        <v>0.001234465796467354</v>
       </c>
       <c r="J24">
-        <v>0.02680156830307112</v>
+        <v>0.4404126748882788</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3977704704787826</v>
       </c>
       <c r="L24">
-        <v>0.5733872142043452</v>
+        <v>0.0466771498124583</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5303764489276972</v>
       </c>
       <c r="O24">
-        <v>1.523537185470587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.897030924570636</v>
+      </c>
+      <c r="Q24">
+        <v>2.209268479774124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.059559997847657</v>
+        <v>2.918682371733894</v>
       </c>
       <c r="C25">
-        <v>0.5652396371300767</v>
+        <v>0.4247469334858351</v>
       </c>
       <c r="D25">
-        <v>0.2763537866542691</v>
+        <v>0.3130696368674393</v>
       </c>
       <c r="E25">
-        <v>0.05600172512537682</v>
+        <v>0.07977815481673289</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3971685985124367</v>
+        <v>0.5659585588671945</v>
       </c>
       <c r="H25">
-        <v>0.3170974926723886</v>
+        <v>0.0006340739893826441</v>
       </c>
       <c r="I25">
-        <v>0.2465898346864179</v>
+        <v>0.001218986051751969</v>
       </c>
       <c r="J25">
-        <v>0.02736579737025302</v>
+        <v>0.4171704755430028</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3880467191433681</v>
       </c>
       <c r="L25">
-        <v>0.4819818696355895</v>
+        <v>0.04191404244002772</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4473131595046738</v>
       </c>
       <c r="O25">
-        <v>1.454705203174228</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9022945571166545</v>
+      </c>
+      <c r="Q25">
+        <v>2.02131473570654</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.465934824889928</v>
+        <v>2.391498472426463</v>
       </c>
       <c r="C2">
-        <v>0.3658118882304393</v>
+        <v>0.3827890335447535</v>
       </c>
       <c r="D2">
-        <v>0.2852528198133228</v>
+        <v>0.2803353610676709</v>
       </c>
       <c r="E2">
-        <v>0.07535593573552468</v>
+        <v>0.07272072763377224</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5238698692045887</v>
+        <v>0.4693244759062054</v>
       </c>
       <c r="H2">
-        <v>0.001953745817515729</v>
+        <v>0.001603043385650538</v>
       </c>
       <c r="I2">
-        <v>0.001295477698755931</v>
+        <v>0.001017110153854972</v>
       </c>
       <c r="J2">
-        <v>0.403381068271969</v>
+        <v>0.4172744765403564</v>
       </c>
       <c r="K2">
-        <v>0.385174314600139</v>
+        <v>0.3509164000088063</v>
       </c>
       <c r="L2">
-        <v>0.03841255642748909</v>
+        <v>0.173968275133582</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09619895933864342</v>
       </c>
       <c r="N2">
-        <v>0.3850996723063247</v>
+        <v>0.03762296981186086</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.905297922557196</v>
+        <v>0.4004425968058172</v>
       </c>
       <c r="Q2">
-        <v>1.90279979691519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9137859639007075</v>
+      </c>
+      <c r="S2">
+        <v>1.784616272018212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.152177579086015</v>
+        <v>2.091966282379815</v>
       </c>
       <c r="C3">
-        <v>0.3283056547483767</v>
+        <v>0.3387758255106803</v>
       </c>
       <c r="D3">
-        <v>0.2663580829397176</v>
+        <v>0.2622583562624641</v>
       </c>
       <c r="E3">
-        <v>0.07218853006695802</v>
+        <v>0.06995885711170047</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4940515739910296</v>
+        <v>0.4448897806331047</v>
       </c>
       <c r="H3">
-        <v>0.003340588013741819</v>
+        <v>0.002782156575427908</v>
       </c>
       <c r="I3">
-        <v>0.002154652328163476</v>
+        <v>0.001600760254370837</v>
       </c>
       <c r="J3">
-        <v>0.3935320362443662</v>
+        <v>0.4065449912893371</v>
       </c>
       <c r="K3">
-        <v>0.3821563764021541</v>
+        <v>0.350306579786313</v>
       </c>
       <c r="L3">
-        <v>0.03601793282475896</v>
+        <v>0.1779587719926568</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09307822185779813</v>
       </c>
       <c r="N3">
-        <v>0.3438861748927877</v>
+        <v>0.03529372000038844</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9106157576744209</v>
+        <v>0.3575968594687708</v>
       </c>
       <c r="Q3">
-        <v>1.818663968022747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9115253872063107</v>
+      </c>
+      <c r="S3">
+        <v>1.713475477698154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.958835794400102</v>
+        <v>1.90704844129408</v>
       </c>
       <c r="C4">
-        <v>0.3053551545252589</v>
+        <v>0.3119414897800965</v>
       </c>
       <c r="D4">
-        <v>0.254874719266212</v>
+        <v>0.2512664744759689</v>
       </c>
       <c r="E4">
-        <v>0.07022721961898526</v>
+        <v>0.06824425356157704</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4761541972889489</v>
+        <v>0.4302819659122576</v>
       </c>
       <c r="H4">
-        <v>0.004416766077833922</v>
+        <v>0.003702138977898062</v>
       </c>
       <c r="I4">
-        <v>0.002890891709079746</v>
+        <v>0.002135184468262885</v>
       </c>
       <c r="J4">
-        <v>0.387770552173194</v>
+        <v>0.4000280250400294</v>
       </c>
       <c r="K4">
-        <v>0.3805680755055185</v>
+        <v>0.3501050703759674</v>
       </c>
       <c r="L4">
-        <v>0.03453363749417449</v>
+        <v>0.1804599698382532</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09175021601519084</v>
       </c>
       <c r="N4">
-        <v>0.3186590968757912</v>
+        <v>0.03385085160834844</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9145770791550092</v>
+        <v>0.3314003212262691</v>
       </c>
       <c r="Q4">
-        <v>1.768465396581774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9109179176043654</v>
+      </c>
+      <c r="S4">
+        <v>1.670818349394267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.878815988046597</v>
+        <v>1.8303947002303</v>
       </c>
       <c r="C5">
-        <v>0.2964352255590939</v>
+        <v>0.3014928826004422</v>
       </c>
       <c r="D5">
-        <v>0.250163682943068</v>
+        <v>0.2467536401430692</v>
       </c>
       <c r="E5">
-        <v>0.06939589483511632</v>
+        <v>0.06751364340315824</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4685303180552296</v>
+        <v>0.4240107398997139</v>
       </c>
       <c r="H5">
-        <v>0.004912303278755414</v>
+        <v>0.004126839048723852</v>
       </c>
       <c r="I5">
-        <v>0.003316028366817214</v>
+        <v>0.00248247574905136</v>
       </c>
       <c r="J5">
-        <v>0.3852734195572509</v>
+        <v>0.3971673633800492</v>
       </c>
       <c r="K5">
-        <v>0.379662909544102</v>
+        <v>0.3497601222539934</v>
       </c>
       <c r="L5">
-        <v>0.0339233044643068</v>
+        <v>0.1813397949831739</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09127808534893589</v>
       </c>
       <c r="N5">
-        <v>0.3085379142410432</v>
+        <v>0.03325892292333421</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9166691951107566</v>
+        <v>0.3208950541150699</v>
       </c>
       <c r="Q5">
-        <v>1.746993319436882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9111996146357342</v>
+      </c>
+      <c r="S5">
+        <v>1.652347913137078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.864228944122885</v>
+        <v>1.816372756464375</v>
       </c>
       <c r="C6">
-        <v>0.2954654669470926</v>
+        <v>0.3003032491806152</v>
       </c>
       <c r="D6">
-        <v>0.2493102248601957</v>
+        <v>0.2459334548707091</v>
       </c>
       <c r="E6">
-        <v>0.06922373983127805</v>
+        <v>0.06735904755695898</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4667468639170664</v>
+        <v>0.4224718391852846</v>
       </c>
       <c r="H6">
-        <v>0.005001280016276477</v>
+        <v>0.004203261678488779</v>
       </c>
       <c r="I6">
-        <v>0.003488458384250492</v>
+        <v>0.002657953021352633</v>
       </c>
       <c r="J6">
-        <v>0.3845956646288329</v>
+        <v>0.396422213222948</v>
       </c>
       <c r="K6">
-        <v>0.379122993840749</v>
+        <v>0.3493335540056961</v>
       </c>
       <c r="L6">
-        <v>0.03382021383716882</v>
+        <v>0.1813013735708822</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09111309298831927</v>
       </c>
       <c r="N6">
-        <v>0.3070322632755733</v>
+        <v>0.03316030791537639</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9174050082342262</v>
+        <v>0.3193293202429288</v>
       </c>
       <c r="Q6">
-        <v>1.741779583881709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9116731180688546</v>
+      </c>
+      <c r="S6">
+        <v>1.647669449065049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.954224991843091</v>
+        <v>1.901157318971883</v>
       </c>
       <c r="C7">
-        <v>0.3066330955992811</v>
+        <v>0.3127735593372591</v>
       </c>
       <c r="D7">
-        <v>0.2546122131140436</v>
+        <v>0.2510555614550327</v>
       </c>
       <c r="E7">
-        <v>0.07012376914866714</v>
+        <v>0.06816039097663484</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.474621034756737</v>
+        <v>0.4319611392564155</v>
       </c>
       <c r="H7">
-        <v>0.004431964181253134</v>
+        <v>0.003720181011161616</v>
       </c>
       <c r="I7">
-        <v>0.00315036824457593</v>
+        <v>0.002439608758841416</v>
       </c>
       <c r="J7">
-        <v>0.3870071306714209</v>
+        <v>0.3944889735264923</v>
       </c>
       <c r="K7">
-        <v>0.379481795220034</v>
+        <v>0.3487046340697972</v>
       </c>
       <c r="L7">
-        <v>0.03452159465883664</v>
+        <v>0.1797916856452488</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09136896380718262</v>
       </c>
       <c r="N7">
-        <v>0.318998778414894</v>
+        <v>0.03382957642976159</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9156519052602334</v>
+        <v>0.3315681828423465</v>
       </c>
       <c r="Q7">
-        <v>1.763615206838352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9125324727846191</v>
+      </c>
+      <c r="S7">
+        <v>1.663200410695282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.353168774877133</v>
+        <v>2.279205152884003</v>
       </c>
       <c r="C8">
-        <v>0.3547320995529049</v>
+        <v>0.3678371533455902</v>
       </c>
       <c r="D8">
-        <v>0.2784495346292175</v>
+        <v>0.2739799916271863</v>
       </c>
       <c r="E8">
-        <v>0.07414574459642509</v>
+        <v>0.07170926308061176</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5116045081571627</v>
+        <v>0.4695137669225886</v>
       </c>
       <c r="H8">
-        <v>0.002391878125719393</v>
+        <v>0.001985457323680162</v>
       </c>
       <c r="I8">
-        <v>0.001850391869863799</v>
+        <v>0.001544671588976421</v>
       </c>
       <c r="J8">
-        <v>0.398960773641889</v>
+        <v>0.3969956931624665</v>
       </c>
       <c r="K8">
-        <v>0.3826612196702115</v>
+        <v>0.3480887302712965</v>
       </c>
       <c r="L8">
-        <v>0.03758513867370006</v>
+        <v>0.1741775512526793</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.09420541486149858</v>
       </c>
       <c r="N8">
-        <v>0.3715062482503839</v>
+        <v>0.03677962759602948</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9084326248073751</v>
+        <v>0.3857047219999146</v>
       </c>
       <c r="Q8">
-        <v>1.867440506463822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9160530617987561</v>
+      </c>
+      <c r="S8">
+        <v>1.744300607788034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.13664776934894</v>
+        <v>3.023966306527598</v>
       </c>
       <c r="C9">
-        <v>0.4473039941855177</v>
+        <v>0.4766527526922744</v>
       </c>
       <c r="D9">
-        <v>0.3265661413644949</v>
+        <v>0.3200374071818004</v>
       </c>
       <c r="E9">
-        <v>0.08207764932190642</v>
+        <v>0.07862985622884899</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5902494687733935</v>
+        <v>0.5375496460928275</v>
       </c>
       <c r="H9">
-        <v>0.0002751472907052133</v>
+        <v>0.0002071457360275364</v>
       </c>
       <c r="I9">
-        <v>0.0006811432782800608</v>
+        <v>0.0008071613790026078</v>
       </c>
       <c r="J9">
-        <v>0.4261005038471524</v>
+        <v>0.4207413405473375</v>
       </c>
       <c r="K9">
-        <v>0.3930303872764505</v>
+        <v>0.351517882361712</v>
       </c>
       <c r="L9">
-        <v>0.04352073211480878</v>
+        <v>0.1650453391308631</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.105423457891586</v>
       </c>
       <c r="N9">
-        <v>0.4743625097129325</v>
+        <v>0.04253984332066629</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8980501055477248</v>
+        <v>0.4926275140796861</v>
       </c>
       <c r="Q9">
-        <v>2.091690200599913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9255080161474467</v>
+      </c>
+      <c r="S9">
+        <v>1.930709948853774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.692300643803605</v>
+        <v>3.542876241478268</v>
       </c>
       <c r="C10">
-        <v>0.5186107669907187</v>
+        <v>0.5569316740838417</v>
       </c>
       <c r="D10">
-        <v>0.3574241003886556</v>
+        <v>0.3497475705253947</v>
       </c>
       <c r="E10">
-        <v>0.08564838353509252</v>
+        <v>0.08166514261585256</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6424060789283601</v>
+        <v>0.6016489884704868</v>
       </c>
       <c r="H10">
-        <v>0.000208305745849291</v>
+        <v>0.0002135203415050135</v>
       </c>
       <c r="I10">
-        <v>0.001158716693789863</v>
+        <v>0.0014185009937</v>
       </c>
       <c r="J10">
-        <v>0.4435924110894831</v>
+        <v>0.4089062519608007</v>
       </c>
       <c r="K10">
-        <v>0.3973648536988392</v>
+        <v>0.3489233506106508</v>
       </c>
       <c r="L10">
-        <v>0.04827201596357256</v>
+        <v>0.1564109703896186</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1141589501247822</v>
       </c>
       <c r="N10">
-        <v>0.5371274702665829</v>
+        <v>0.04721092538913219</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.900151769903502</v>
+        <v>0.5570533941822049</v>
       </c>
       <c r="Q10">
-        <v>2.239354597535453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9459709642268166</v>
+      </c>
+      <c r="S10">
+        <v>2.034025599770501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.803302317187388</v>
+        <v>3.637237115124833</v>
       </c>
       <c r="C11">
-        <v>0.570448225889379</v>
+        <v>0.6035418490858717</v>
       </c>
       <c r="D11">
-        <v>0.3276478755419703</v>
+        <v>0.321072312475323</v>
       </c>
       <c r="E11">
-        <v>0.07077457659161013</v>
+        <v>0.06763688810786661</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6000440582470503</v>
+        <v>0.6030900247063329</v>
       </c>
       <c r="H11">
-        <v>0.01878124348000654</v>
+        <v>0.01877933781739927</v>
       </c>
       <c r="I11">
-        <v>0.001878782624493702</v>
+        <v>0.002227869957805773</v>
       </c>
       <c r="J11">
-        <v>0.418636136789118</v>
+        <v>0.3383288059624903</v>
       </c>
       <c r="K11">
-        <v>0.3619113076850589</v>
+        <v>0.3138188150008503</v>
       </c>
       <c r="L11">
-        <v>0.05815401404919385</v>
+        <v>0.1408965905466992</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1044856125774771</v>
       </c>
       <c r="N11">
-        <v>0.4527742101556811</v>
+        <v>0.05780714143318377</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9543135459595362</v>
+        <v>0.4683822781341576</v>
       </c>
       <c r="Q11">
-        <v>2.097486314179065</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.016199294329255</v>
+      </c>
+      <c r="S11">
+        <v>1.869567731708742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.783010482394275</v>
+        <v>3.616042222020667</v>
       </c>
       <c r="C12">
-        <v>0.5976040241060332</v>
+        <v>0.6257153001277231</v>
       </c>
       <c r="D12">
-        <v>0.297341074888493</v>
+        <v>0.2916899327880884</v>
       </c>
       <c r="E12">
-        <v>0.0607533427471072</v>
+        <v>0.05825225959300528</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5560947865903643</v>
+        <v>0.5802303276035303</v>
       </c>
       <c r="H12">
-        <v>0.05743449058032724</v>
+        <v>0.05743187343495038</v>
       </c>
       <c r="I12">
-        <v>0.001903102829110992</v>
+        <v>0.002243907593858729</v>
       </c>
       <c r="J12">
-        <v>0.3951359857365588</v>
+        <v>0.3015118748347376</v>
       </c>
       <c r="K12">
-        <v>0.333805797154433</v>
+        <v>0.2888158059465411</v>
       </c>
       <c r="L12">
-        <v>0.07127193668750209</v>
+        <v>0.1313751281337829</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.09565335510403372</v>
       </c>
       <c r="N12">
-        <v>0.3743854625090535</v>
+        <v>0.07138385271249703</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.002627546676777</v>
+        <v>0.3869460795068846</v>
       </c>
       <c r="Q12">
-        <v>1.95517976829035</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.071951070678168</v>
+      </c>
+      <c r="S12">
+        <v>1.729077316457307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.655053501868679</v>
+        <v>3.502909327493398</v>
       </c>
       <c r="C13">
-        <v>0.6092913427585813</v>
+        <v>0.6341503527735881</v>
       </c>
       <c r="D13">
-        <v>0.2646849968777332</v>
+        <v>0.2597724230765124</v>
       </c>
       <c r="E13">
-        <v>0.05373335975390292</v>
+        <v>0.05177688269467051</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5061389356619088</v>
+        <v>0.5276446966819037</v>
       </c>
       <c r="H13">
-        <v>0.1131457631643258</v>
+        <v>0.1131457578615453</v>
       </c>
       <c r="I13">
-        <v>0.001732631108219529</v>
+        <v>0.002074438899461128</v>
       </c>
       <c r="J13">
-        <v>0.3702247409383119</v>
+        <v>0.2895652002828584</v>
       </c>
       <c r="K13">
-        <v>0.308006116415946</v>
+        <v>0.2688842939189016</v>
       </c>
       <c r="L13">
-        <v>0.08738516880582026</v>
+        <v>0.124927793521918</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08684211880108705</v>
       </c>
       <c r="N13">
-        <v>0.2972636746301873</v>
+        <v>0.08796609041809234</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.049897849596164</v>
+        <v>0.307773891573234</v>
       </c>
       <c r="Q13">
-        <v>1.797094192724217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.117926291984887</v>
+      </c>
+      <c r="S13">
+        <v>1.596771123711022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.516172756804849</v>
+        <v>3.381116511089942</v>
       </c>
       <c r="C14">
-        <v>0.6109261832367281</v>
+        <v>0.634307397153691</v>
       </c>
       <c r="D14">
-        <v>0.241075024445891</v>
+        <v>0.2366099183755068</v>
       </c>
       <c r="E14">
-        <v>0.05060494316408604</v>
+        <v>0.04901150612579264</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4685104152534194</v>
+        <v>0.4790241914769666</v>
       </c>
       <c r="H14">
-        <v>0.1624743681993976</v>
+        <v>0.1624719442639702</v>
       </c>
       <c r="I14">
-        <v>0.001628663945706599</v>
+        <v>0.001983965860373971</v>
       </c>
       <c r="J14">
-        <v>0.3521439095039511</v>
+        <v>0.2903537059906967</v>
       </c>
       <c r="K14">
-        <v>0.2910371601007107</v>
+        <v>0.2569468746060402</v>
       </c>
       <c r="L14">
-        <v>0.1006451477709263</v>
+        <v>0.1215363474267264</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08075145950774854</v>
       </c>
       <c r="N14">
-        <v>0.245389092333653</v>
+        <v>0.1015947098647985</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.083100382932287</v>
+        <v>0.2548100873118813</v>
       </c>
       <c r="Q14">
-        <v>1.679408203792519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.145931971042785</v>
+      </c>
+      <c r="S14">
+        <v>1.506278046415957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.458525936998001</v>
+        <v>3.330564726019247</v>
       </c>
       <c r="C15">
-        <v>0.6085343156572662</v>
+        <v>0.631915067301918</v>
       </c>
       <c r="D15">
-        <v>0.2346817538903707</v>
+        <v>0.2303100103551117</v>
       </c>
       <c r="E15">
-        <v>0.05006789203932493</v>
+        <v>0.04857177220655717</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4575930588978991</v>
+        <v>0.46175253035004</v>
       </c>
       <c r="H15">
-        <v>0.1749809157244613</v>
+        <v>0.1749753515313444</v>
       </c>
       <c r="I15">
-        <v>0.001686053162464063</v>
+        <v>0.002065173060018743</v>
       </c>
       <c r="J15">
-        <v>0.3472151865951645</v>
+        <v>0.2943413496409022</v>
       </c>
       <c r="K15">
-        <v>0.2869780156816795</v>
+        <v>0.2545603950480064</v>
       </c>
       <c r="L15">
-        <v>0.1037517393466985</v>
+        <v>0.1210738624222589</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0791507593696501</v>
       </c>
       <c r="N15">
-        <v>0.2323844066703771</v>
+        <v>0.1048309107068803</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.090817959916222</v>
+        <v>0.2416479234228035</v>
       </c>
       <c r="Q15">
-        <v>1.645909562843912</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.15061838221223</v>
+      </c>
+      <c r="S15">
+        <v>1.483430259676993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.246309309683227</v>
+        <v>3.14333648528833</v>
       </c>
       <c r="C16">
-        <v>0.5756954244698989</v>
+        <v>0.6013244971744029</v>
       </c>
       <c r="D16">
-        <v>0.2286073813985894</v>
+        <v>0.2241638829191572</v>
       </c>
       <c r="E16">
-        <v>0.05006187656795635</v>
+        <v>0.04865455407245445</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4449833787741397</v>
+        <v>0.4192155661016841</v>
       </c>
       <c r="H16">
-        <v>0.1622725647335557</v>
+        <v>0.1622332896884018</v>
       </c>
       <c r="I16">
-        <v>0.00160273648477105</v>
+        <v>0.001978141894835694</v>
       </c>
       <c r="J16">
-        <v>0.3444404002581365</v>
+        <v>0.329826602433414</v>
       </c>
       <c r="K16">
-        <v>0.2898201862482104</v>
+        <v>0.2611924959074123</v>
       </c>
       <c r="L16">
-        <v>0.09788488409446217</v>
+        <v>0.1252777124157749</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07865995815034843</v>
       </c>
       <c r="N16">
-        <v>0.2234549238922767</v>
+        <v>0.09927026509676296</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.077666435498713</v>
+        <v>0.2335399328095917</v>
       </c>
       <c r="Q16">
-        <v>1.613169786621029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.122490132372405</v>
+      </c>
+      <c r="S16">
+        <v>1.484967721044853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.157045503798201</v>
+        <v>3.062059577218577</v>
       </c>
       <c r="C17">
-        <v>0.5497959654834972</v>
+        <v>0.5769233582256277</v>
       </c>
       <c r="D17">
-        <v>0.2362766105231771</v>
+        <v>0.2315953476384749</v>
       </c>
       <c r="E17">
-        <v>0.05141224702489744</v>
+        <v>0.04985238783034407</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4551265546212022</v>
+        <v>0.4158089661072637</v>
       </c>
       <c r="H17">
-        <v>0.1245469575635383</v>
+        <v>0.1244782130496134</v>
       </c>
       <c r="I17">
-        <v>0.001630995801656709</v>
+        <v>0.001993876779436299</v>
       </c>
       <c r="J17">
-        <v>0.3518721379790009</v>
+        <v>0.3538107573408524</v>
       </c>
       <c r="K17">
-        <v>0.3008757531750277</v>
+        <v>0.2723813525239258</v>
       </c>
       <c r="L17">
-        <v>0.08594311024511114</v>
+        <v>0.1305184418620478</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08122188589974577</v>
       </c>
       <c r="N17">
-        <v>0.2431969721382643</v>
+        <v>0.08724774407253477</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.05027429274007</v>
+        <v>0.2544105721424046</v>
       </c>
       <c r="Q17">
-        <v>1.650112255844448</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.088176470072526</v>
+      </c>
+      <c r="S17">
+        <v>1.531267585328948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.165546464848319</v>
+        <v>3.068209786021555</v>
       </c>
       <c r="C18">
-        <v>0.5258217155758587</v>
+        <v>0.5551017750022993</v>
       </c>
       <c r="D18">
-        <v>0.2574364759536536</v>
+        <v>0.2522280121841902</v>
       </c>
       <c r="E18">
-        <v>0.05567814166805451</v>
+        <v>0.05369958391732954</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4874828646072871</v>
+        <v>0.4395521505800417</v>
       </c>
       <c r="H18">
-        <v>0.07173749799481755</v>
+        <v>0.07166074997542182</v>
       </c>
       <c r="I18">
-        <v>0.001410401930073135</v>
+        <v>0.001720925360082504</v>
       </c>
       <c r="J18">
-        <v>0.3696020553302333</v>
+        <v>0.3774902603961294</v>
       </c>
       <c r="K18">
-        <v>0.3215767234400175</v>
+        <v>0.2906029824028522</v>
       </c>
       <c r="L18">
-        <v>0.07003546607055355</v>
+        <v>0.1380063079820868</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.08720058194409575</v>
       </c>
       <c r="N18">
-        <v>0.2932952481222202</v>
+        <v>0.07095335846972262</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.008175670784993</v>
+        <v>0.3063941707594608</v>
       </c>
       <c r="Q18">
-        <v>1.75576439164243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.043167762492644</v>
+      </c>
+      <c r="S18">
+        <v>1.631517604091727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.245020877119373</v>
+        <v>3.138551958696098</v>
       </c>
       <c r="C19">
-        <v>0.5084553826894194</v>
+        <v>0.5408450491866574</v>
       </c>
       <c r="D19">
-        <v>0.2888034829765189</v>
+        <v>0.2828021958279123</v>
       </c>
       <c r="E19">
-        <v>0.06425276753405207</v>
+        <v>0.06162378243208799</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.534130282833658</v>
+        <v>0.4795063977516065</v>
       </c>
       <c r="H19">
-        <v>0.02643239741654213</v>
+        <v>0.02637354953154158</v>
       </c>
       <c r="I19">
-        <v>0.001530788058183852</v>
+        <v>0.001877242669023893</v>
       </c>
       <c r="J19">
-        <v>0.3935748162074049</v>
+        <v>0.4013631937438191</v>
       </c>
       <c r="K19">
-        <v>0.3480698107579663</v>
+        <v>0.3128525757732277</v>
       </c>
       <c r="L19">
-        <v>0.05613759750777803</v>
+        <v>0.1466112281052503</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09535771841227714</v>
       </c>
       <c r="N19">
-        <v>0.3708527865822191</v>
+        <v>0.05641879955800988</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9630337541612448</v>
+        <v>0.3865626832878348</v>
       </c>
       <c r="Q19">
-        <v>1.904836741222169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9975658285716946</v>
+      </c>
+      <c r="S19">
+        <v>1.765650502765254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.53460483951153</v>
+        <v>3.400263636740306</v>
       </c>
       <c r="C20">
-        <v>0.5044412870566077</v>
+        <v>0.5426603179562051</v>
       </c>
       <c r="D20">
-        <v>0.3484425632542525</v>
+        <v>0.3409016042683817</v>
       </c>
       <c r="E20">
-        <v>0.08434459588977283</v>
+        <v>0.08045490795314869</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6237530751323419</v>
+        <v>0.5683598898159516</v>
       </c>
       <c r="H20">
-        <v>0.0001194717489148012</v>
+        <v>0.0001181930692215616</v>
       </c>
       <c r="I20">
-        <v>0.001711617902885543</v>
+        <v>0.002114603607997978</v>
       </c>
       <c r="J20">
-        <v>0.4364738483194088</v>
+        <v>0.4257325117028756</v>
       </c>
       <c r="K20">
-        <v>0.3926528666768228</v>
+        <v>0.3477112522520187</v>
       </c>
       <c r="L20">
-        <v>0.047031582343533</v>
+        <v>0.1579604951342617</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1109884489698238</v>
       </c>
       <c r="N20">
-        <v>0.5215472339992715</v>
+        <v>0.04606271585992161</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9032828498458727</v>
+        <v>0.5416899119118597</v>
       </c>
       <c r="Q20">
-        <v>2.184785613677064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9427636468573866</v>
+      </c>
+      <c r="S20">
+        <v>2.002529829631413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.98631927405944</v>
+        <v>3.793700562590118</v>
       </c>
       <c r="C21">
-        <v>0.5556387725167724</v>
+        <v>0.5911601797511992</v>
       </c>
       <c r="D21">
-        <v>0.3804504050912669</v>
+        <v>0.3727957072656238</v>
       </c>
       <c r="E21">
-        <v>0.0904673894329715</v>
+        <v>0.08634116614427256</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6772914654422237</v>
+        <v>0.6944361884520021</v>
       </c>
       <c r="H21">
-        <v>0.0002727772407793427</v>
+        <v>0.0002482684140157065</v>
       </c>
       <c r="I21">
-        <v>0.002360700036719621</v>
+        <v>0.002728797689370843</v>
       </c>
       <c r="J21">
-        <v>0.4567410974012631</v>
+        <v>0.3452359652083317</v>
       </c>
       <c r="K21">
-        <v>0.4038568731893264</v>
+        <v>0.345248266124667</v>
       </c>
       <c r="L21">
-        <v>0.05009354129149646</v>
+        <v>0.1513777172917372</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1180730623255002</v>
       </c>
       <c r="N21">
-        <v>0.5908235706571645</v>
+        <v>0.04863207578652062</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.89734183446663</v>
+        <v>0.6094420068239828</v>
       </c>
       <c r="Q21">
-        <v>2.341071550897965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9614514282171314</v>
+      </c>
+      <c r="S21">
+        <v>2.063986905586631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.278142387953778</v>
+        <v>4.045010115348134</v>
       </c>
       <c r="C22">
-        <v>0.5883671079519956</v>
+        <v>0.6209511026565622</v>
       </c>
       <c r="D22">
-        <v>0.3991912660754338</v>
+        <v>0.3916391319199164</v>
       </c>
       <c r="E22">
-        <v>0.09348546547417413</v>
+        <v>0.08931677935531113</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7109435998541613</v>
+        <v>0.7856718967077256</v>
       </c>
       <c r="H22">
-        <v>0.0007442630810863271</v>
+        <v>0.0006426461905626457</v>
       </c>
       <c r="I22">
-        <v>0.002750524589088421</v>
+        <v>0.002959592970951164</v>
       </c>
       <c r="J22">
-        <v>0.4693872506256582</v>
+        <v>0.2957229846741853</v>
       </c>
       <c r="K22">
-        <v>0.4107083692727329</v>
+        <v>0.3426880284016569</v>
       </c>
       <c r="L22">
-        <v>0.05231101918934211</v>
+        <v>0.1468598000353261</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1226410292759184</v>
       </c>
       <c r="N22">
-        <v>0.6286736958104768</v>
+        <v>0.0505817552736465</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8953597690097581</v>
+        <v>0.6457353452426418</v>
       </c>
       <c r="Q22">
-        <v>2.43911173675653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9768466276760108</v>
+      </c>
+      <c r="S22">
+        <v>2.095473401586588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.126748783684491</v>
+        <v>3.91901134192284</v>
       </c>
       <c r="C23">
-        <v>0.5691559012088874</v>
+        <v>0.6046281068764188</v>
       </c>
       <c r="D23">
-        <v>0.3894065569239018</v>
+        <v>0.3816501444628528</v>
       </c>
       <c r="E23">
-        <v>0.09198148866444456</v>
+        <v>0.08777542475631961</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6946154862999379</v>
+        <v>0.7286824610358309</v>
       </c>
       <c r="H23">
-        <v>0.0004673204038563306</v>
+        <v>0.0004150682256593985</v>
       </c>
       <c r="I23">
-        <v>0.002227032535365936</v>
+        <v>0.002468635365817207</v>
       </c>
       <c r="J23">
-        <v>0.4634562286870789</v>
+        <v>0.3309958621035634</v>
       </c>
       <c r="K23">
-        <v>0.4082645092748294</v>
+        <v>0.3461029587304765</v>
       </c>
       <c r="L23">
-        <v>0.0511276572749102</v>
+        <v>0.1499451566234633</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1210383678892164</v>
       </c>
       <c r="N23">
-        <v>0.6078770147135089</v>
+        <v>0.04956439541162982</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8948933079731347</v>
+        <v>0.6262532339771809</v>
       </c>
       <c r="Q23">
-        <v>2.391961183396859</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9652946991153897</v>
+      </c>
+      <c r="S23">
+        <v>2.09130917636071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.545975481696701</v>
+        <v>3.410907529021017</v>
       </c>
       <c r="C24">
-        <v>0.4994970140867565</v>
+        <v>0.5377842193449567</v>
       </c>
       <c r="D24">
-        <v>0.3523378587972417</v>
+        <v>0.3446979406013639</v>
       </c>
       <c r="E24">
-        <v>0.08611354696305185</v>
+        <v>0.08213171045142964</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6314135592514418</v>
+        <v>0.5747640693863332</v>
       </c>
       <c r="H24">
-        <v>1.56580514998339E-07</v>
+        <v>4.693018240686797E-07</v>
       </c>
       <c r="I24">
-        <v>0.001234465796467354</v>
+        <v>0.001537917651077692</v>
       </c>
       <c r="J24">
-        <v>0.4404126748882788</v>
+        <v>0.4301852904835783</v>
       </c>
       <c r="K24">
-        <v>0.3977704704787826</v>
+        <v>0.3522089311075369</v>
       </c>
       <c r="L24">
-        <v>0.0466771498124583</v>
+        <v>0.159704432338728</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1126237421924401</v>
       </c>
       <c r="N24">
-        <v>0.5303764489276972</v>
+        <v>0.04560512036960507</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.897030924570636</v>
+        <v>0.550826630793523</v>
       </c>
       <c r="Q24">
-        <v>2.209268479774124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9358574245209326</v>
+      </c>
+      <c r="S24">
+        <v>2.025401568877783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.918682371733894</v>
+        <v>2.818843599777779</v>
       </c>
       <c r="C25">
-        <v>0.4247469334858351</v>
+        <v>0.4505597219522315</v>
       </c>
       <c r="D25">
-        <v>0.3130696368674393</v>
+        <v>0.3070421163824051</v>
       </c>
       <c r="E25">
-        <v>0.07977815481673289</v>
+        <v>0.07658784981457423</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5659585588671945</v>
+        <v>0.5116829279444062</v>
       </c>
       <c r="H25">
-        <v>0.0006340739893826441</v>
+        <v>0.0005001429514459588</v>
       </c>
       <c r="I25">
-        <v>0.001218986051751969</v>
+        <v>0.001343585528829294</v>
       </c>
       <c r="J25">
-        <v>0.4171704755430028</v>
+        <v>0.4195861160160064</v>
       </c>
       <c r="K25">
-        <v>0.3880467191433681</v>
+        <v>0.3491863707482068</v>
       </c>
       <c r="L25">
-        <v>0.04191404244002772</v>
+        <v>0.1669781393026994</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1014353700471489</v>
       </c>
       <c r="N25">
-        <v>0.4473131595046738</v>
+        <v>0.04100809208277578</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9022945571166545</v>
+        <v>0.4647257227767767</v>
       </c>
       <c r="Q25">
-        <v>2.02131473570654</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9238387594376789</v>
+      </c>
+      <c r="S25">
+        <v>1.875499676464443</v>
       </c>
     </row>
   </sheetData>
